--- a/xlsx/template.xlsx
+++ b/xlsx/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Таблиця_1" sheetId="2" r:id="rId1"/>
@@ -1657,6 +1657,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1690,6 +1699,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1708,60 +1771,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1821,15 +1830,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1895,17 +1895,7 @@
     <cellStyle name="Просмотренная гиперссылка" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="60" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2246,7 +2236,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView topLeftCell="B6" workbookViewId="0">
       <selection activeCell="B19" sqref="A19:XFD1048576"/>
@@ -2262,10 +2252,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46" hidden="1" customHeight="1" thickBot="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="124"/>
+      <c r="B1" s="127"/>
       <c r="C1" s="18">
         <v>23</v>
       </c>
@@ -2503,39 +2493,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="128"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="126"/>
+      <c r="A2" s="129"/>
       <c r="B2" s="2">
         <v>21</v>
       </c>
@@ -2616,33 +2606,33 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="133"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135"/>
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="136"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -3048,33 +3038,33 @@
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
-      <c r="Z9" s="130"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="133"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -3579,7 +3569,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -3599,23 +3589,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="153" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="148" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="145" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="140"/>
       <c r="C2" s="33" t="s">
         <v>33</v>
       </c>
@@ -3628,11 +3618,11 @@
       <c r="F2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="149"/>
+      <c r="G2" s="146"/>
     </row>
     <row r="3" spans="1:7" ht="71" customHeight="1" thickBot="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
+      <c r="A3" s="141"/>
+      <c r="B3" s="142"/>
       <c r="C3" s="43" t="s">
         <v>34</v>
       </c>
@@ -3645,13 +3635,13 @@
       <c r="F3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="150"/>
+      <c r="G3" s="147"/>
     </row>
     <row r="4" spans="1:7" ht="40" customHeight="1">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="40">
         <v>0.3</v>
       </c>
@@ -3670,10 +3660,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="34">
         <v>0.2</v>
       </c>
@@ -3692,10 +3682,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="135"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="34">
         <v>0.5</v>
       </c>
@@ -3714,10 +3704,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="135"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="35" t="s">
         <v>40</v>
       </c>
@@ -3736,10 +3726,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="135"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="34" t="s">
         <v>40</v>
       </c>
@@ -3758,10 +3748,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="135"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="35" t="s">
         <v>40</v>
       </c>
@@ -3780,10 +3770,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" thickBot="1">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="137"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="36" t="s">
         <v>40</v>
       </c>
@@ -3802,7 +3792,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="159" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -3830,7 +3820,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="A12" s="139"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="39" t="s">
         <v>47</v>
       </c>
@@ -3857,15 +3847,15 @@
     <row r="13" spans="1:7" hidden="1"/>
     <row r="14" spans="1:7" hidden="1"/>
     <row r="15" spans="1:7" s="14" customFormat="1" ht="59" hidden="1" customHeight="1">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
     </row>
     <row r="16" spans="1:7" s="14" customFormat="1" ht="59" hidden="1" customHeight="1">
       <c r="A16" s="52"/>
@@ -3877,7 +3867,7 @@
       <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="339" hidden="1" customHeight="1">
-      <c r="A17" s="151" t="str">
+      <c r="A17" s="148" t="str">
         <f xml:space="preserve"> A21 &amp; "
 " &amp; A22 &amp; "
 " &amp; A23 &amp; "
@@ -3887,12 +3877,12 @@
 " &amp; A27</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="217" hidden="1" customHeight="1">
       <c r="A18" s="55"/>
@@ -3913,18 +3903,18 @@
       <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1" ht="37" hidden="1" customHeight="1">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A21" s="147" t="str">
+      <c r="A21" s="144" t="str">
         <f xml:space="preserve"> A4 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -3937,15 +3927,15 @@
   )</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн.</v>
       </c>
-      <c r="B21" s="147"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A22" s="147" t="str">
+      <c r="A22" s="144" t="str">
         <f t="shared" ref="A22:A27" si="1" xml:space="preserve"> A5 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -3958,72 +3948,72 @@
   )</f>
         <v>ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн.</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A23" s="147" t="str">
+      <c r="A23" s="144" t="str">
         <f t="shared" si="1"/>
         <v>ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн.</v>
       </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A24" s="147" t="str">
+      <c r="A24" s="144" t="str">
         <f t="shared" si="1"/>
         <v>ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн.</v>
       </c>
-      <c r="B24" s="147"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A25" s="147" t="str">
+      <c r="A25" s="144" t="str">
         <f t="shared" si="1"/>
         <v>ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн.</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
     </row>
     <row r="26" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A26" s="147" t="str">
+      <c r="A26" s="144" t="str">
         <f t="shared" si="1"/>
         <v>ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн.</v>
       </c>
-      <c r="B26" s="147"/>
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A27" s="147" t="str">
+      <c r="A27" s="144" t="str">
         <f t="shared" si="1"/>
         <v>ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
       <c r="A28" s="53"/>
@@ -4355,6 +4345,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A25:G25"/>
@@ -4371,11 +4366,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4397,7 +4387,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J1:XFD1048576"/>
@@ -4418,26 +4408,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="158" t="s">
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="161" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1" thickBot="1">
-      <c r="A2" s="163"/>
-      <c r="B2" s="161"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="164"/>
       <c r="C2" s="46" t="str">
         <f>Таблиця_1!$B13</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -4458,7 +4448,7 @@
         <f>Таблиця_1!$B17</f>
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
-      <c r="H2" s="159"/>
+      <c r="H2" s="162"/>
     </row>
     <row r="3" spans="1:8" ht="70" customHeight="1">
       <c r="A3" s="47" t="str">
@@ -4629,7 +4619,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="59" customHeight="1" thickBot="1">
-      <c r="A9" s="179" t="str">
+      <c r="A9" s="124" t="str">
         <f>Таблиця_2!A10</f>
         <v>ВД_7. Вирішення нестандартних проблем клієнтів</v>
       </c>
@@ -4688,11 +4678,11 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="56" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="56" customWidth="1"/>
@@ -4702,40 +4692,41 @@
     <col min="6" max="6" width="18.6640625" style="56" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" style="56" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="64" style="56" customWidth="1"/>
-    <col min="11" max="11" width="28" style="56" customWidth="1"/>
-    <col min="12" max="12" width="90.5" style="56" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="56"/>
-    <col min="14" max="14" width="34" style="56" customWidth="1"/>
-    <col min="15" max="15" width="52.83203125" style="56" customWidth="1"/>
-    <col min="16" max="16" width="32.83203125" style="56" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" style="56" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="56"/>
+    <col min="9" max="9" width="3.1640625" style="56" customWidth="1"/>
+    <col min="10" max="10" width="64" style="56" hidden="1"/>
+    <col min="11" max="11" width="28" style="56" hidden="1"/>
+    <col min="12" max="12" width="90.5" style="56" hidden="1"/>
+    <col min="13" max="13" width="10.83203125" style="56" hidden="1"/>
+    <col min="14" max="14" width="34" style="56" hidden="1"/>
+    <col min="15" max="15" width="52.83203125" style="56" hidden="1"/>
+    <col min="16" max="16" width="32.83203125" style="56" hidden="1"/>
+    <col min="17" max="17" width="15.1640625" style="56" hidden="1"/>
+    <col min="18" max="19" width="0" style="56" hidden="1"/>
+    <col min="20" max="16384" width="10.83203125" style="56" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="162" t="s">
+      <c r="D1" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="173"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="176"/>
     </row>
     <row r="2" spans="1:14" ht="80" customHeight="1" thickBot="1">
-      <c r="A2" s="159"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="170"/>
+      <c r="A2" s="162"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="173"/>
       <c r="D2" s="96" t="str">
         <f>Таблиця_3!C2</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -4752,7 +4743,7 @@
         <f>Таблиця_3!F2</f>
         <v>СП_4_Послуги інженера третьої сторони на території замовника</v>
       </c>
-      <c r="H2" s="178" t="str">
+      <c r="H2" s="123" t="str">
         <f>Таблиця_3!G2</f>
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
@@ -5036,42 +5027,42 @@
         <v>2133,2 тис. грн. / 51975 x 1000 = 41 грн.</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" hidden="1">
       <c r="N11" s="56" t="str">
         <f>B5 &amp; " тис. грн. / " &amp; Таблиця_3!H5 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C5,1) &amp; " грн."</f>
         <v>2077,6 тис. грн. / 31600 x 1000 = 65,7 грн.</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" hidden="1">
       <c r="N12" s="56" t="str">
         <f>B6 &amp; " тис. грн. / " &amp; Таблиця_3!H6 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C6,1) &amp; " грн."</f>
         <v>2927,75 тис. грн. / 3000 x 1000 = 975,9 грн.</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" customHeight="1">
-      <c r="A13" s="168" t="s">
+    <row r="13" spans="1:14" ht="45" hidden="1" customHeight="1">
+      <c r="A13" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
       <c r="N13" s="56" t="str">
         <f>B7 &amp; " тис. грн. / " &amp; Таблиця_3!H7 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C7,1) &amp; " грн."</f>
         <v>12627,65 тис. грн. / 40000 x 1000 = 315,7 грн.</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" hidden="1">
       <c r="N14" s="56" t="str">
         <f>B8 &amp; " тис. грн. / " &amp; Таблиця_3!H8 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C8,1) &amp; " грн."</f>
         <v>4505,5 тис. грн. / 8500 x 1000 = 530,1 грн.</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="397" customHeight="1">
-      <c r="A15" s="167" t="str">
+    <row r="15" spans="1:14" ht="397" hidden="1" customHeight="1">
+      <c r="A15" s="170" t="str">
         <f xml:space="preserve">    A3 &amp; ":
  " &amp; N9 &amp; "
 " &amp; A4 &amp; ":
@@ -5088,29 +5079,30 @@
  " &amp; N15</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_ 2477,6 тис. грн. / 78100 x 1000 = 31,7 грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_ 2133,2 тис. грн. / 51975 x 1000 = 41 грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_ 2077,6 тис. грн. / 31600 x 1000 = 65,7 грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_ 2927,75 тис. грн. / 3000 x 1000 = 975,9 грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_ 12627,65 тис. грн. / 40000 x 1000 = 315,7 грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_ 4505,5 тис. грн. / 8500 x 1000 = 530,1 грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_ 4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
       <c r="N15" s="56" t="str">
         <f>B9 &amp; " тис. грн. / " &amp; Таблиця_3!H9 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C9,1) &amp; " грн."</f>
         <v>4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="45" customHeight="1">
-      <c r="A17" s="168" t="s">
+    <row r="16" spans="1:14" hidden="1"/>
+    <row r="17" spans="1:19" ht="45" hidden="1" customHeight="1">
+      <c r="A17" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
       <c r="O17" s="56" t="str">
         <f>D2</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -5132,7 +5124,7 @@
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" hidden="1">
       <c r="O18" s="56" t="str">
         <f>IF(ISNUMBER(D3), "     " &amp; $A3 &amp; ",
 ", "")</f>
@@ -5156,22 +5148,26 @@
         <v xml:space="preserve">     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="167" t="str">
+    <row r="19" spans="1:19" hidden="1">
+      <c r="A19" s="170" t="str">
         <f xml:space="preserve">   LEFT(O27, LEN(O27)-2) &amp; ";
 " &amp; LEFT(P27, LEN(P27)-2) &amp; ";
 " &amp; LEFT(Q27, LEN(Q27)-2) &amp; ";
 " &amp; LEFT(R27, LEN(R27)-2) &amp; ";
 " &amp; LEFT(S27, LEN(S27)-2)</f>
-        <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми;_x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин;_x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів;_x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг);_x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів</v>
-      </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
+        <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми;_x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин;_x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів;_x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг);_x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів</v>
+      </c>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
       <c r="O19" s="56" t="str">
         <f t="shared" ref="O19:O23" si="3">IF(ISNUMBER(D4), "     " &amp; $A4 &amp; ",
 ", "")</f>
@@ -5194,15 +5190,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="167"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
+    <row r="20" spans="1:19" hidden="1">
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
       <c r="O20" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5224,15 +5220,15 @@
         <v xml:space="preserve">     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="62" customHeight="1">
-      <c r="A21" s="167"/>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
+    <row r="21" spans="1:19" ht="62" hidden="1" customHeight="1">
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
       <c r="O21" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5254,15 +5250,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="167"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
+    <row r="22" spans="1:19" hidden="1">
+      <c r="A22" s="170"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
       <c r="O22" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5284,15 +5280,15 @@
         <v xml:space="preserve">     ВД_5. Виконання робіт інженерами СЦ,_x000D_</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="167"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
+    <row r="23" spans="1:19" hidden="1">
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
       <c r="O23" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5314,17 +5310,17 @@
         <v xml:space="preserve">     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="409" customHeight="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
+    <row r="24" spans="1:19" ht="409" hidden="1" customHeight="1">
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
       <c r="O24" s="56" t="str">
-        <f t="shared" ref="O19:O24" si="4">IF(ISNUMBER(D9), "     " &amp; $A9 &amp; ",
+        <f t="shared" ref="O24" si="4">IF(ISNUMBER(D9), "     " &amp; $A9 &amp; ",
 ", "")</f>
         <v/>
       </c>
@@ -5345,28 +5341,34 @@
         <v xml:space="preserve">     ВД_7. Вирішення нестандартних проблем клієнтів,_x000D_</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="25" spans="1:19" hidden="1"/>
+    <row r="26" spans="1:19" hidden="1"/>
+    <row r="27" spans="1:19" hidden="1">
       <c r="O27" s="56" t="str">
         <f xml:space="preserve"> O17 &amp; ":
 " &amp; O18 &amp; O19 &amp; O20 &amp; O21 &amp; O22 &amp; O23 &amp; O24</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_</v>
       </c>
       <c r="P27" s="56" t="str">
-        <f t="shared" ref="P27:V27" si="5" xml:space="preserve"> P17 &amp; ":
+        <f t="shared" ref="P27:S27" si="5" xml:space="preserve"> P17 &amp; ":
 " &amp; P18 &amp; P19 &amp; P20 &amp; P21 &amp; P22 &amp; P23 &amp; P24</f>
-        <v>СП_2_Консультування та відправлення замовнику запасних частин:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин,_x000D_</v>
+        <v>СП_2_Консультування та відправлення замовнику запасних частин:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин,_x000D_</v>
       </c>
       <c r="Q27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>СП_3_Послуги інженера СЦ на території замовника:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів,_x000D_</v>
+        <v>СП_3_Послуги інженера СЦ на території замовника:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів,_x000D_</v>
       </c>
       <c r="R27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>СП_4_Послуги інженера третьої сторони на території замовника:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_</v>
+        <v>СП_4_Послуги інженера третьої сторони на території замовника:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_</v>
       </c>
       <c r="S27" s="56" t="str">
         <f t="shared" si="5"/>
-        <v>СП_5_Первинне встановлення корпоративної серверної системи:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів,_x000D_</v>
+        <v>СП_5_Первинне встановлення корпоративної серверної системи:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів,_x000D_</v>
       </c>
     </row>
   </sheetData>
@@ -5416,8 +5418,8 @@
     <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1" hidden="1"/>
-    <col min="11" max="11" width="62.33203125" style="1" hidden="1"/>
+    <col min="9" max="10" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -5434,10 +5436,10 @@
       <c r="D1" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="176"/>
+      <c r="F1" s="179"/>
       <c r="G1" s="111" t="s">
         <v>85</v>
       </c>
@@ -5582,7 +5584,7 @@
         <f>Таблиця_3!G7+Таблиця_3!G8</f>
         <v>2500</v>
       </c>
-      <c r="G6" s="180">
+      <c r="G6" s="125">
         <f t="shared" si="1"/>
         <v>821.34356184313617</v>
       </c>
@@ -5596,7 +5598,7 @@
         <v>36954</v>
       </c>
       <c r="C7" s="119">
-        <f t="shared" ref="C7:D7" si="2">SUM(C2:C6)</f>
+        <f t="shared" ref="C7" si="2">SUM(C2:C6)</f>
         <v>30777.000000000004</v>
       </c>
       <c r="D7" s="119">
@@ -5615,19 +5617,19 @@
     </row>
     <row r="8" spans="1:11" hidden="1"/>
     <row r="9" spans="1:11" ht="81" hidden="1" customHeight="1">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="180" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:11" hidden="1"/>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="151" t="str">
+      <c r="A11" s="148" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K11
   &amp; "
@@ -5644,96 +5646,96 @@
 " &amp; K15</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1650,1 тис. грн. / 19800 x 1000 = 83,3 грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_18506,3 тис. грн. / 38000 x 1000 = 487 грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_5065,5 тис. грн. / 8000 x 1000 = 633,2 грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
       <c r="K11" s="58" t="str">
         <f xml:space="preserve"> ROUND(C2,1) &amp; " тис. грн. / " &amp; F2 &amp; " x 1000 = " &amp; ROUND(G2,1) &amp; " грн."</f>
         <v>1650,1 тис. грн. / 19800 x 1000 = 83,3 грн.</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="151"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
+      <c r="A12" s="148"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
       <c r="K12" s="58" t="str">
         <f t="shared" ref="K12:K15" si="3" xml:space="preserve"> ROUND(C3,1) &amp; " тис. грн. / " &amp; F3 &amp; " x 1000 = " &amp; ROUND(G3,1) &amp; " грн."</f>
         <v>3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн.</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="151"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
+      <c r="A13" s="148"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
       <c r="K13" s="58" t="str">
         <f t="shared" si="3"/>
         <v>18506,3 тис. грн. / 38000 x 1000 = 487 грн.</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="151"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
       <c r="K14" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5065,5 тис. грн. / 8000 x 1000 = 633,2 грн.</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="151"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
+      <c r="A15" s="148"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
       <c r="K15" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="226" hidden="1" customHeight="1">
-      <c r="A16" s="151"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
+      <c r="A16" s="148"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" hidden="1"/>
     <row r="18" spans="1:11" hidden="1"/>
     <row r="19" spans="1:11" ht="23" hidden="1">
-      <c r="A19" s="177" t="s">
+      <c r="A19" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="177"/>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
     </row>
     <row r="20" spans="1:11" hidden="1"/>
     <row r="21" spans="1:11" hidden="1"/>
     <row r="22" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="167" t="str">
+      <c r="A22" s="170" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K22
   &amp; "
@@ -5753,105 +5755,105 @@
 " &amp; K27</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1815 - 1650,1 = 164,9 тис. грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_4202 - 3501,6 = 700,4 тис. грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_24058 - 18506,3 = 5551,7 тис. грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_3799 - 5065,5 = -1266,5 тис. грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_3080 - 2053,4 = 1026,6 тис. грн._x000D__x000D_Разом:_x000D_(164,9) + (700,4) + (5551,7) + (-1266,5) + (1026,6) = 6177 тис. грн.</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
       <c r="K22" s="58" t="str">
         <f xml:space="preserve"> ROUND(B2,1) &amp; " - " &amp; ROUND(C2,1) &amp; " = " &amp; ROUND(D2,1) &amp; " тис. грн."</f>
         <v>1815 - 1650,1 = 164,9 тис. грн.</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="167"/>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
       <c r="K23" s="58" t="str">
         <f t="shared" ref="K23:K26" si="4" xml:space="preserve"> ROUND(B3,1) &amp; " - " &amp; ROUND(C3,1) &amp; " = " &amp; ROUND(D3,1) &amp; " тис. грн."</f>
         <v>4202 - 3501,6 = 700,4 тис. грн.</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="167"/>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
       <c r="K24" s="58" t="str">
         <f t="shared" si="4"/>
         <v>24058 - 18506,3 = 5551,7 тис. грн.</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="167"/>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
       <c r="K25" s="58" t="str">
         <f t="shared" si="4"/>
         <v>3799 - 5065,5 = -1266,5 тис. грн.</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="167"/>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="A26" s="170"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
       <c r="K26" s="58" t="str">
         <f t="shared" si="4"/>
         <v>3080 - 2053,4 = 1026,6 тис. грн.</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" hidden="1" customHeight="1">
-      <c r="A27" s="167"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="A27" s="170"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
       <c r="K27" s="58" t="str">
         <f xml:space="preserve"> "(" &amp; ROUND(D2, 1) &amp; ") + (" &amp; ROUND(D3, 1) &amp; ") + (" &amp; ROUND(D4, 1) &amp; ") + (" &amp; ROUND(D5, 1) &amp; ") + (" &amp; ROUND(D6, 1) &amp; ") = " &amp; ROUND(D7, 1) &amp; " тис. грн."</f>
         <v>(164,9) + (700,4) + (5551,7) + (-1266,5) + (1026,6) = 6177 тис. грн.</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="195" hidden="1" customHeight="1">
-      <c r="A28" s="167"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
+      <c r="A28" s="170"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
       <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" hidden="1">
       <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11" ht="23" hidden="1">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11" hidden="1">
@@ -5861,68 +5863,68 @@
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1">
-      <c r="A32" s="175" t="str">
+      <c r="A32" s="178" t="str">
         <f xml:space="preserve"> "Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання " &amp; LEFT(K37, LEN(K37) -2) &amp; "."</f>
         <v>Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання СП_4_Послуги інженера третьої сторони на території замовника.</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175"/>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
       <c r="K32" s="60" t="str">
         <f t="shared" ref="K32:K35" si="5">IF(D3&lt;0,A3 &amp; ", ", "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1">
-      <c r="A33" s="175"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
       <c r="K33" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1">
-      <c r="A34" s="175"/>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="178"/>
       <c r="K34" s="60" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">СП_4_Послуги інженера третьої сторони на території замовника, </v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1">
-      <c r="A35" s="175"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="178"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
       <c r="K35" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:11" ht="36" hidden="1" customHeight="1">
-      <c r="A36" s="175"/>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
+      <c r="A36" s="178"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
     </row>
     <row r="37" spans="1:11" hidden="1">
       <c r="K37" s="1" t="str">
@@ -5942,7 +5944,7 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5971,7 +5973,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="98.83203125" style="54" customWidth="1"/>
-    <col min="2" max="9" width="0" style="54" hidden="1"/>
+    <col min="2" max="9" width="0" style="54" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="54" hidden="1"/>
   </cols>
   <sheetData>
@@ -5995,13 +5997,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="338" customHeight="1">
-      <c r="A3" s="167" t="str">
+      <c r="A3" s="170" t="str">
         <f>Таблиця_2!A17</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="192" customHeight="1">
-      <c r="A4" s="167"/>
+      <c r="A4" s="170"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1">
       <c r="A5" s="63" t="str">
@@ -6010,13 +6012,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="333" customHeight="1">
-      <c r="A6" s="167" t="str">
+      <c r="A6" s="170" t="str">
         <f>Таблиця_4!A15</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_ 2477,6 тис. грн. / 78100 x 1000 = 31,7 грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_ 2133,2 тис. грн. / 51975 x 1000 = 41 грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_ 2077,6 тис. грн. / 31600 x 1000 = 65,7 грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_ 2927,75 тис. грн. / 3000 x 1000 = 975,9 грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_ 12627,65 тис. грн. / 40000 x 1000 = 315,7 грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_ 4505,5 тис. грн. / 8500 x 1000 = 530,1 грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_ 4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="271" customHeight="1">
-      <c r="A7" s="167"/>
+      <c r="A7" s="170"/>
     </row>
     <row r="8" spans="1:9" ht="34" customHeight="1">
       <c r="A8" s="63" t="str">
@@ -6025,13 +6027,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="409" customHeight="1">
-      <c r="A9" s="167" t="str">
+      <c r="A9" s="170" t="str">
         <f>Таблиця_4!A19</f>
-        <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми;_x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин;_x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів;_x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг);_x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів</v>
+        <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми;_x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин;_x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів;_x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг);_x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:
+     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="149" customHeight="1">
-      <c r="A10" s="167"/>
+      <c r="A10" s="170"/>
     </row>
     <row r="11" spans="1:9"/>
     <row r="12" spans="1:9" ht="27" customHeight="1">

--- a/xlsx/template.xlsx
+++ b/xlsx/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Таблиця_1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Номер варіанта</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Дохід від надання сервісних послуг СП_1-5, тис. грн</t>
+  </si>
+  <si>
+    <t>За результатами операційної діяльності надання жодної з послуг не є збитковим. Коригувати структуру надання сервісних послуг немає необхідності</t>
   </si>
 </sst>
 </file>
@@ -1699,6 +1702,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1751,24 +1772,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,7 +1898,17 @@
     <cellStyle name="Просмотренная гиперссылка" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="60" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3589,23 +3602,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="150" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="145" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="151" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="33" t="s">
         <v>33</v>
       </c>
@@ -3618,11 +3631,11 @@
       <c r="F2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="146"/>
+      <c r="G2" s="152"/>
     </row>
     <row r="3" spans="1:7" ht="71" customHeight="1" thickBot="1">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="148"/>
       <c r="C3" s="43" t="s">
         <v>34</v>
       </c>
@@ -3635,13 +3648,13 @@
       <c r="F3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="153"/>
     </row>
     <row r="4" spans="1:7" ht="40" customHeight="1">
-      <c r="A4" s="153" t="s">
+      <c r="A4" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="154"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="40">
         <v>0.3</v>
       </c>
@@ -3660,10 +3673,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="156"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="34">
         <v>0.2</v>
       </c>
@@ -3682,10 +3695,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="156"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="34">
         <v>0.5</v>
       </c>
@@ -3704,10 +3717,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="156"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="35" t="s">
         <v>40</v>
       </c>
@@ -3726,10 +3739,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="156"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="34" t="s">
         <v>40</v>
       </c>
@@ -3748,10 +3761,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="156"/>
+      <c r="B9" s="138"/>
       <c r="C9" s="35" t="s">
         <v>40</v>
       </c>
@@ -3770,10 +3783,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" thickBot="1">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="158"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="36" t="s">
         <v>40</v>
       </c>
@@ -3792,7 +3805,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="141" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -3820,7 +3833,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="A12" s="160"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="39" t="s">
         <v>47</v>
       </c>
@@ -3847,15 +3860,15 @@
     <row r="13" spans="1:7" hidden="1"/>
     <row r="14" spans="1:7" hidden="1"/>
     <row r="15" spans="1:7" s="14" customFormat="1" ht="59" hidden="1" customHeight="1">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
     </row>
     <row r="16" spans="1:7" s="14" customFormat="1" ht="59" hidden="1" customHeight="1">
       <c r="A16" s="52"/>
@@ -3867,7 +3880,7 @@
       <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="339" hidden="1" customHeight="1">
-      <c r="A17" s="148" t="str">
+      <c r="A17" s="154" t="str">
         <f xml:space="preserve"> A21 &amp; "
 " &amp; A22 &amp; "
 " &amp; A23 &amp; "
@@ -3877,12 +3890,12 @@
 " &amp; A27</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="217" hidden="1" customHeight="1">
       <c r="A18" s="55"/>
@@ -3903,18 +3916,18 @@
       <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1" ht="37" hidden="1" customHeight="1">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A21" s="144" t="str">
+      <c r="A21" s="150" t="str">
         <f xml:space="preserve"> A4 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -3927,15 +3940,15 @@
   )</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн.</v>
       </c>
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A22" s="144" t="str">
+      <c r="A22" s="150" t="str">
         <f t="shared" ref="A22:A27" si="1" xml:space="preserve"> A5 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -3948,72 +3961,72 @@
   )</f>
         <v>ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн.</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A23" s="144" t="str">
+      <c r="A23" s="150" t="str">
         <f t="shared" si="1"/>
         <v>ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн.</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A24" s="144" t="str">
+      <c r="A24" s="150" t="str">
         <f t="shared" si="1"/>
         <v>ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн.</v>
       </c>
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A25" s="144" t="str">
+      <c r="A25" s="150" t="str">
         <f t="shared" si="1"/>
         <v>ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн.</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
     </row>
     <row r="26" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A26" s="144" t="str">
+      <c r="A26" s="150" t="str">
         <f t="shared" si="1"/>
         <v>ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн.</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A27" s="144" t="str">
+      <c r="A27" s="150" t="str">
         <f t="shared" si="1"/>
         <v>ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
       <c r="A28" s="53"/>
@@ -4345,11 +4358,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A25:G25"/>
@@ -4366,6 +4374,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4678,7 +4691,7 @@
   </sheetPr>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
@@ -4693,15 +4706,15 @@
     <col min="7" max="7" width="22.83203125" style="56" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" style="56" customWidth="1"/>
     <col min="9" max="9" width="3.1640625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="64" style="56" hidden="1"/>
-    <col min="11" max="11" width="28" style="56" hidden="1"/>
-    <col min="12" max="12" width="90.5" style="56" hidden="1"/>
-    <col min="13" max="13" width="10.83203125" style="56" hidden="1"/>
-    <col min="14" max="14" width="34" style="56" hidden="1"/>
-    <col min="15" max="15" width="52.83203125" style="56" hidden="1"/>
-    <col min="16" max="16" width="32.83203125" style="56" hidden="1"/>
-    <col min="17" max="17" width="15.1640625" style="56" hidden="1"/>
-    <col min="18" max="19" width="0" style="56" hidden="1"/>
+    <col min="10" max="10" width="64" style="56" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="28" style="56" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="90.5" style="56" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="56" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="34" style="56" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="52.83203125" style="56" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="32.83203125" style="56" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" style="56" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="0" style="56" hidden="1" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="56" hidden="1"/>
   </cols>
   <sheetData>
@@ -5402,11 +5415,9 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5418,8 +5429,8 @@
     <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="62.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="10.83203125" style="1" hidden="1"/>
+    <col min="11" max="11" width="62.33203125" style="1" hidden="1"/>
     <col min="12" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
@@ -5629,7 +5640,7 @@
     </row>
     <row r="10" spans="1:11" hidden="1"/>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="148" t="str">
+      <c r="A11" s="154" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K11
   &amp; "
@@ -5646,77 +5657,77 @@
 " &amp; K15</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1650,1 тис. грн. / 19800 x 1000 = 83,3 грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_18506,3 тис. грн. / 38000 x 1000 = 487 грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_5065,5 тис. грн. / 8000 x 1000 = 633,2 грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
       <c r="K11" s="58" t="str">
         <f xml:space="preserve"> ROUND(C2,1) &amp; " тис. грн. / " &amp; F2 &amp; " x 1000 = " &amp; ROUND(G2,1) &amp; " грн."</f>
         <v>1650,1 тис. грн. / 19800 x 1000 = 83,3 грн.</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
       <c r="K12" s="58" t="str">
         <f t="shared" ref="K12:K15" si="3" xml:space="preserve"> ROUND(C3,1) &amp; " тис. грн. / " &amp; F3 &amp; " x 1000 = " &amp; ROUND(G3,1) &amp; " грн."</f>
         <v>3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн.</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="148"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
       <c r="K13" s="58" t="str">
         <f t="shared" si="3"/>
         <v>18506,3 тис. грн. / 38000 x 1000 = 487 грн.</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="148"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
       <c r="K14" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5065,5 тис. грн. / 8000 x 1000 = 633,2 грн.</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="148"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
       <c r="K15" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="226" hidden="1" customHeight="1">
-      <c r="A16" s="148"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" hidden="1"/>
@@ -5864,7 +5875,7 @@
     </row>
     <row r="32" spans="1:11" hidden="1">
       <c r="A32" s="178" t="str">
-        <f xml:space="preserve"> "Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання " &amp; LEFT(K37, LEN(K37) -2) &amp; "."</f>
+        <f xml:space="preserve"> IF(LEN(K37) &lt; 2, K41, K40)</f>
         <v>Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання СП_4_Послуги інженера третьої сторони на території замовника.</v>
       </c>
       <c r="B32" s="178"/>
@@ -5930,6 +5941,19 @@
       <c r="K37" s="1" t="str">
         <f>K31 &amp; K32 &amp; K33 &amp;  K34 &amp; K35</f>
         <v xml:space="preserve">СП_4_Послуги інженера третьої сторони на території замовника, </v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1"/>
+    <row r="39" spans="1:11" hidden="1"/>
+    <row r="40" spans="1:11" hidden="1">
+      <c r="K40" s="1" t="str">
+        <f xml:space="preserve"> "Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання " &amp; LEFT(K37, LEN(K37) -2) &amp; "."</f>
+        <v>Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання СП_4_Послуги інженера третьої сторони на території замовника.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" hidden="1">
+      <c r="K41" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5944,7 +5968,7 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xlsx/template.xlsx
+++ b/xlsx/template.xlsx
@@ -1617,9 +1617,6 @@
     <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1642,9 +1639,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,6 +1696,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1720,60 +1768,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1833,6 +1827,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1898,17 +1898,7 @@
     <cellStyle name="Просмотренная гиперссылка" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Просмотренная гиперссылка" xfId="60" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2265,10 +2255,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="46" hidden="1" customHeight="1" thickBot="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="127"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="18">
         <v>23</v>
       </c>
@@ -2506,39 +2496,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="129"/>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
-      <c r="A2" s="129"/>
+      <c r="A2" s="127"/>
       <c r="B2" s="2">
         <v>21</v>
       </c>
@@ -2619,33 +2609,33 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="136"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133"/>
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="133"/>
+      <c r="T3" s="133"/>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="133"/>
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="134"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A4" s="6" t="s">
@@ -3051,33 +3041,33 @@
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="133"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="131"/>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1" ht="26" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -3602,23 +3592,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="156" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="151" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="143" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1">
-      <c r="A2" s="145"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="33" t="s">
         <v>33</v>
       </c>
@@ -3631,11 +3621,11 @@
       <c r="F2" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="152"/>
+      <c r="G2" s="144"/>
     </row>
     <row r="3" spans="1:7" ht="71" customHeight="1" thickBot="1">
-      <c r="A3" s="147"/>
-      <c r="B3" s="148"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="43" t="s">
         <v>34</v>
       </c>
@@ -3648,13 +3638,13 @@
       <c r="F3" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="153"/>
+      <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" ht="40" customHeight="1">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="160"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="40">
         <v>0.3</v>
       </c>
@@ -3673,10 +3663,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="34">
         <v>0.2</v>
       </c>
@@ -3695,10 +3685,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="138"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="34">
         <v>0.5</v>
       </c>
@@ -3717,10 +3707,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1">
-      <c r="A7" s="137" t="s">
+      <c r="A7" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="138"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="35" t="s">
         <v>40</v>
       </c>
@@ -3739,10 +3729,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="34" t="s">
         <v>40</v>
       </c>
@@ -3761,10 +3751,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="35" t="s">
         <v>40</v>
       </c>
@@ -3783,10 +3773,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" thickBot="1">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="140"/>
+      <c r="B10" s="156"/>
       <c r="C10" s="36" t="s">
         <v>40</v>
       </c>
@@ -3805,7 +3795,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="157" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="38" t="s">
@@ -3833,7 +3823,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" thickBot="1">
-      <c r="A12" s="142"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="39" t="s">
         <v>47</v>
       </c>
@@ -3860,15 +3850,15 @@
     <row r="13" spans="1:7" hidden="1"/>
     <row r="14" spans="1:7" hidden="1"/>
     <row r="15" spans="1:7" s="14" customFormat="1" ht="59" hidden="1" customHeight="1">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
     </row>
     <row r="16" spans="1:7" s="14" customFormat="1" ht="59" hidden="1" customHeight="1">
       <c r="A16" s="52"/>
@@ -3880,7 +3870,7 @@
       <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" s="14" customFormat="1" ht="339" hidden="1" customHeight="1">
-      <c r="A17" s="154" t="str">
+      <c r="A17" s="146" t="str">
         <f xml:space="preserve"> A21 &amp; "
 " &amp; A22 &amp; "
 " &amp; A23 &amp; "
@@ -3890,12 +3880,12 @@
 " &amp; A27</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="1:7" s="14" customFormat="1" ht="217" hidden="1" customHeight="1">
       <c r="A18" s="55"/>
@@ -3916,18 +3906,18 @@
       <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1" ht="37" hidden="1" customHeight="1">
-      <c r="A20" s="155" t="s">
+      <c r="A20" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A21" s="150" t="str">
+      <c r="A21" s="142" t="str">
         <f xml:space="preserve"> A4 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -3940,15 +3930,15 @@
   )</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн.</v>
       </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A22" s="150" t="str">
+      <c r="A22" s="142" t="str">
         <f t="shared" ref="A22:A27" si="1" xml:space="preserve"> A5 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -3961,72 +3951,72 @@
   )</f>
         <v>ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн.</v>
       </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A23" s="150" t="str">
+      <c r="A23" s="142" t="str">
         <f t="shared" si="1"/>
         <v>ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн.</v>
       </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A24" s="150" t="str">
+      <c r="A24" s="142" t="str">
         <f t="shared" si="1"/>
         <v>ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн.</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A25" s="150" t="str">
+      <c r="A25" s="142" t="str">
         <f t="shared" si="1"/>
         <v>ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн.</v>
       </c>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
     </row>
     <row r="26" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A26" s="150" t="str">
+      <c r="A26" s="142" t="str">
         <f t="shared" si="1"/>
         <v>ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн.</v>
       </c>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
     </row>
     <row r="27" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
-      <c r="A27" s="150" t="str">
+      <c r="A27" s="142" t="str">
         <f t="shared" si="1"/>
         <v>ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
     </row>
     <row r="28" spans="1:7" s="14" customFormat="1" ht="43" hidden="1" customHeight="1">
       <c r="A28" s="53"/>
@@ -4358,6 +4348,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A25:G25"/>
@@ -4374,11 +4369,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4421,26 +4411,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="165" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="161" t="s">
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="159" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1" thickBot="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="164"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="162"/>
       <c r="C2" s="46" t="str">
         <f>Таблиця_1!$B13</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -4461,7 +4451,7 @@
         <f>Таблиця_1!$B17</f>
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
-      <c r="H2" s="162"/>
+      <c r="H2" s="160"/>
     </row>
     <row r="3" spans="1:8" ht="70" customHeight="1">
       <c r="A3" s="47" t="str">
@@ -4632,7 +4622,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="59" customHeight="1" thickBot="1">
-      <c r="A9" s="124" t="str">
+      <c r="A9" s="122" t="str">
         <f>Таблиця_2!A10</f>
         <v>ВД_7. Вирішення нестандартних проблем клієнтів</v>
       </c>
@@ -4719,27 +4709,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="170" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="165" t="s">
+      <c r="D1" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="176"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="174"/>
     </row>
     <row r="2" spans="1:14" ht="80" customHeight="1" thickBot="1">
-      <c r="A2" s="162"/>
-      <c r="B2" s="175"/>
-      <c r="C2" s="173"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="171"/>
       <c r="D2" s="96" t="str">
         <f>Таблиця_3!C2</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -4756,7 +4746,7 @@
         <f>Таблиця_3!F2</f>
         <v>СП_4_Послуги інженера третьої сторони на території замовника</v>
       </c>
-      <c r="H2" s="123" t="str">
+      <c r="H2" s="121" t="str">
         <f>Таблиця_3!G2</f>
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
@@ -5034,7 +5024,7 @@
         <f t="shared" si="0"/>
         <v>2053.3589046078405</v>
       </c>
-      <c r="I10" s="122"/>
+      <c r="I10" s="120"/>
       <c r="N10" s="56" t="str">
         <f>B4 &amp; " тис. грн. / " &amp; Таблиця_3!H4 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C4,1) &amp; " грн."</f>
         <v>2133,2 тис. грн. / 51975 x 1000 = 41 грн.</v>
@@ -5053,16 +5043,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" hidden="1" customHeight="1">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="169" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
       <c r="N13" s="56" t="str">
         <f>B7 &amp; " тис. грн. / " &amp; Таблиця_3!H7 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C7,1) &amp; " грн."</f>
         <v>12627,65 тис. грн. / 40000 x 1000 = 315,7 грн.</v>
@@ -5075,7 +5065,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="397" hidden="1" customHeight="1">
-      <c r="A15" s="170" t="str">
+      <c r="A15" s="168" t="str">
         <f xml:space="preserve">    A3 &amp; ":
  " &amp; N9 &amp; "
 " &amp; A4 &amp; ":
@@ -5092,13 +5082,13 @@
  " &amp; N15</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_ 2477,6 тис. грн. / 78100 x 1000 = 31,7 грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_ 2133,2 тис. грн. / 51975 x 1000 = 41 грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_ 2077,6 тис. грн. / 31600 x 1000 = 65,7 грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_ 2927,75 тис. грн. / 3000 x 1000 = 975,9 грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_ 12627,65 тис. грн. / 40000 x 1000 = 315,7 грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_ 4505,5 тис. грн. / 8500 x 1000 = 530,1 грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_ 4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
       <c r="N15" s="56" t="str">
         <f>B9 &amp; " тис. грн. / " &amp; Таблиця_3!H9 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C9,1) &amp; " грн."</f>
         <v>4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
@@ -5106,16 +5096,16 @@
     </row>
     <row r="16" spans="1:14" hidden="1"/>
     <row r="17" spans="1:19" ht="45" hidden="1" customHeight="1">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="169" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
       <c r="O17" s="56" t="str">
         <f>D2</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -5162,7 +5152,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" hidden="1">
-      <c r="A19" s="170" t="str">
+      <c r="A19" s="168" t="str">
         <f xml:space="preserve">   LEFT(O27, LEN(O27)-2) &amp; ";
 " &amp; LEFT(P27, LEN(P27)-2) &amp; ";
 " &amp; LEFT(Q27, LEN(Q27)-2) &amp; ";
@@ -5174,13 +5164,13 @@
      ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг);_x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:
      ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_5. Виконання робіт інженерами СЦ,_x000D_     ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),_x000D_     ВД_7. Вирішення нестандартних проблем клієнтів</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
       <c r="O19" s="56" t="str">
         <f t="shared" ref="O19:O23" si="3">IF(ISNUMBER(D4), "     " &amp; $A4 &amp; ",
 ", "")</f>
@@ -5204,14 +5194,14 @@
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
+      <c r="A20" s="168"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
       <c r="O20" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5234,14 +5224,14 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="62" hidden="1" customHeight="1">
-      <c r="A21" s="170"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
+      <c r="A21" s="168"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
       <c r="O21" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5264,14 +5254,14 @@
       </c>
     </row>
     <row r="22" spans="1:19" hidden="1">
-      <c r="A22" s="170"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
+      <c r="A22" s="168"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
       <c r="O22" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5294,14 +5284,14 @@
       </c>
     </row>
     <row r="23" spans="1:19" hidden="1">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
       <c r="O23" s="56" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5324,14 +5314,14 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="409" hidden="1" customHeight="1">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
       <c r="O24" s="56" t="str">
         <f t="shared" ref="O24" si="4">IF(ISNUMBER(D9), "     " &amp; $A9 &amp; ",
 ", "")</f>
@@ -5417,7 +5407,9 @@
   </sheetPr>
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -5429,34 +5421,34 @@
     <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="1" hidden="1"/>
-    <col min="11" max="11" width="62.33203125" style="1" hidden="1"/>
+    <col min="9" max="10" width="10.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="73" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="179" t="s">
+      <c r="E1" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="179"/>
-      <c r="G1" s="111" t="s">
+      <c r="F1" s="177"/>
+      <c r="G1" s="110" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32" customHeight="1">
-      <c r="A2" s="112" t="str">
+      <c r="A2" s="111" t="str">
         <f>Таблиця_1!B13</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
       </c>
@@ -5475,17 +5467,17 @@
       <c r="E2" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="108">
+      <c r="F2" s="179">
         <f>Таблиця_3!C4</f>
         <v>19800</v>
       </c>
-      <c r="G2" s="113">
+      <c r="G2" s="112">
         <f>C2/F2*1000</f>
         <v>83.340717706914901</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="46" customHeight="1">
-      <c r="A3" s="112" t="str">
+      <c r="A3" s="111" t="str">
         <f>Таблиця_1!B14</f>
         <v>СП_2_Консультування та відправлення замовнику запасних частин</v>
       </c>
@@ -5504,17 +5496,17 @@
       <c r="E3" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="179">
         <f>Таблиця_3!D6</f>
         <v>3000</v>
       </c>
-      <c r="G3" s="113">
+      <c r="G3" s="112">
         <f t="shared" ref="G3:G6" si="1">C3/F3*1000</f>
         <v>1167.2147948638856</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1">
-      <c r="A4" s="112" t="str">
+      <c r="A4" s="111" t="str">
         <f>Таблиця_1!B15</f>
         <v>СП_3_Послуги інженера СЦ на території замовника</v>
       </c>
@@ -5533,17 +5525,17 @@
       <c r="E4" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="179">
         <f>Таблиця_3!E7</f>
         <v>38000</v>
       </c>
-      <c r="G4" s="113">
+      <c r="G4" s="112">
         <f t="shared" si="1"/>
         <v>487.00807385973258</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1">
-      <c r="A5" s="112" t="str">
+      <c r="A5" s="111" t="str">
         <f>Таблиця_1!B16</f>
         <v>СП_4_Послуги інженера третьої сторони на території замовника</v>
       </c>
@@ -5562,85 +5554,85 @@
       <c r="E5" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="108">
+      <c r="F5" s="179">
         <f>Таблиця_3!F8</f>
         <v>8000</v>
       </c>
-      <c r="G5" s="113">
+      <c r="G5" s="112">
         <f t="shared" si="1"/>
         <v>633.19296169171901</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="43" customHeight="1" thickBot="1">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="113" t="str">
         <f>Таблиця_1!B17</f>
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="114">
         <f>Таблиця_1!C17</f>
         <v>3080</v>
       </c>
-      <c r="C6" s="115">
+      <c r="C6" s="114">
         <f>Таблиця_4!H$10</f>
         <v>2053.3589046078405</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="114">
         <f t="shared" si="0"/>
         <v>1026.5999999999999</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="180">
         <f>Таблиця_3!G7+Таблиця_3!G8</f>
         <v>2500</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="123">
         <f t="shared" si="1"/>
         <v>821.34356184313617</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29" customHeight="1" thickBot="1">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="119">
+      <c r="B7" s="117">
         <f>SUM(B2:B6)</f>
         <v>36954</v>
       </c>
-      <c r="C7" s="119">
+      <c r="C7" s="117">
         <f t="shared" ref="C7" si="2">SUM(C2:C6)</f>
         <v>30777.000000000004</v>
       </c>
-      <c r="D7" s="119">
+      <c r="D7" s="117">
         <f t="shared" si="0"/>
         <v>6177</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="120" t="s">
+      <c r="F7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="121" t="s">
+      <c r="G7" s="119" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1"/>
     <row r="9" spans="1:11" ht="81" hidden="1" customHeight="1">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
     </row>
     <row r="10" spans="1:11" hidden="1"/>
     <row r="11" spans="1:11" hidden="1">
-      <c r="A11" s="154" t="str">
+      <c r="A11" s="146" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K11
   &amp; "
@@ -5657,96 +5649,96 @@
 " &amp; K15</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1650,1 тис. грн. / 19800 x 1000 = 83,3 грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_18506,3 тис. грн. / 38000 x 1000 = 487 грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_5065,5 тис. грн. / 8000 x 1000 = 633,2 грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
       <c r="K11" s="58" t="str">
         <f xml:space="preserve"> ROUND(C2,1) &amp; " тис. грн. / " &amp; F2 &amp; " x 1000 = " &amp; ROUND(G2,1) &amp; " грн."</f>
         <v>1650,1 тис. грн. / 19800 x 1000 = 83,3 грн.</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
+      <c r="A12" s="146"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
       <c r="K12" s="58" t="str">
         <f t="shared" ref="K12:K15" si="3" xml:space="preserve"> ROUND(C3,1) &amp; " тис. грн. / " &amp; F3 &amp; " x 1000 = " &amp; ROUND(G3,1) &amp; " грн."</f>
         <v>3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн.</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
       <c r="K13" s="58" t="str">
         <f t="shared" si="3"/>
         <v>18506,3 тис. грн. / 38000 x 1000 = 487 грн.</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
       <c r="K14" s="58" t="str">
         <f t="shared" si="3"/>
         <v>5065,5 тис. грн. / 8000 x 1000 = 633,2 грн.</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1">
-      <c r="A15" s="154"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
       <c r="K15" s="58" t="str">
         <f t="shared" si="3"/>
         <v>2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="226" hidden="1" customHeight="1">
-      <c r="A16" s="154"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
       <c r="K16" s="58"/>
     </row>
     <row r="17" spans="1:11" hidden="1"/>
     <row r="18" spans="1:11" hidden="1"/>
     <row r="19" spans="1:11" ht="23" hidden="1">
-      <c r="A19" s="180" t="s">
+      <c r="A19" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
+      <c r="B19" s="178"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
     </row>
     <row r="20" spans="1:11" hidden="1"/>
     <row r="21" spans="1:11" hidden="1"/>
     <row r="22" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="170" t="str">
+      <c r="A22" s="168" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K22
   &amp; "
@@ -5766,105 +5758,105 @@
 " &amp; K27</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1815 - 1650,1 = 164,9 тис. грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_4202 - 3501,6 = 700,4 тис. грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_24058 - 18506,3 = 5551,7 тис. грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_3799 - 5065,5 = -1266,5 тис. грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_3080 - 2053,4 = 1026,6 тис. грн._x000D__x000D_Разом:_x000D_(164,9) + (700,4) + (5551,7) + (-1266,5) + (1026,6) = 6177 тис. грн.</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
       <c r="K22" s="58" t="str">
         <f xml:space="preserve"> ROUND(B2,1) &amp; " - " &amp; ROUND(C2,1) &amp; " = " &amp; ROUND(D2,1) &amp; " тис. грн."</f>
         <v>1815 - 1650,1 = 164,9 тис. грн.</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
+      <c r="A23" s="168"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="K23" s="58" t="str">
         <f t="shared" ref="K23:K26" si="4" xml:space="preserve"> ROUND(B3,1) &amp; " - " &amp; ROUND(C3,1) &amp; " = " &amp; ROUND(D3,1) &amp; " тис. грн."</f>
         <v>4202 - 3501,6 = 700,4 тис. грн.</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
+      <c r="A24" s="168"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="K24" s="58" t="str">
         <f t="shared" si="4"/>
         <v>24058 - 18506,3 = 5551,7 тис. грн.</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
+      <c r="A25" s="168"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
       <c r="K25" s="58" t="str">
         <f t="shared" si="4"/>
         <v>3799 - 5065,5 = -1266,5 тис. грн.</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="170"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
+      <c r="A26" s="168"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
       <c r="K26" s="58" t="str">
         <f t="shared" si="4"/>
         <v>3080 - 2053,4 = 1026,6 тис. грн.</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" hidden="1" customHeight="1">
-      <c r="A27" s="170"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
+      <c r="A27" s="168"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
       <c r="K27" s="58" t="str">
         <f xml:space="preserve"> "(" &amp; ROUND(D2, 1) &amp; ") + (" &amp; ROUND(D3, 1) &amp; ") + (" &amp; ROUND(D4, 1) &amp; ") + (" &amp; ROUND(D5, 1) &amp; ") + (" &amp; ROUND(D6, 1) &amp; ") = " &amp; ROUND(D7, 1) &amp; " тис. грн."</f>
         <v>(164,9) + (700,4) + (5551,7) + (-1266,5) + (1026,6) = 6177 тис. грн.</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="195" hidden="1" customHeight="1">
-      <c r="A28" s="170"/>
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
+      <c r="A28" s="168"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
       <c r="K28" s="58"/>
     </row>
     <row r="29" spans="1:11" hidden="1">
       <c r="K29" s="58"/>
     </row>
     <row r="30" spans="1:11" ht="23" hidden="1">
-      <c r="A30" s="177" t="s">
+      <c r="A30" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="177"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
       <c r="K30" s="58"/>
     </row>
     <row r="31" spans="1:11" hidden="1">
@@ -5874,68 +5866,68 @@
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1">
-      <c r="A32" s="178" t="str">
+      <c r="A32" s="176" t="str">
         <f xml:space="preserve"> IF(LEN(K37) &lt; 2, K41, K40)</f>
         <v>Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання СП_4_Послуги інженера третьої сторони на території замовника.</v>
       </c>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
       <c r="K32" s="60" t="str">
         <f t="shared" ref="K32:K35" si="5">IF(D3&lt;0,A3 &amp; ", ", "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
+      <c r="A33" s="176"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
       <c r="K33" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
       <c r="K34" s="60" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">СП_4_Послуги інженера третьої сторони на території замовника, </v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1">
-      <c r="A35" s="178"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
+      <c r="A35" s="176"/>
+      <c r="B35" s="176"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
       <c r="K35" s="60" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:11" ht="36" hidden="1" customHeight="1">
-      <c r="A36" s="178"/>
-      <c r="B36" s="178"/>
-      <c r="C36" s="178"/>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
+      <c r="A36" s="176"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
     </row>
     <row r="37" spans="1:11" hidden="1">
       <c r="K37" s="1" t="str">
@@ -5968,7 +5960,7 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6021,13 +6013,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="338" customHeight="1">
-      <c r="A3" s="170" t="str">
+      <c r="A3" s="168" t="str">
         <f>Таблиця_2!A17</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_3444 х 20% + 7222 х 20% = 2133,2 тис. грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_3444 х 50% + 1778 х 20% = 2077,6 тис. грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_1778 х 10% + 18333 х 15% = 2927,75 тис. грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_1778 х 40% + 18333 х 65% = 12627,65 тис. грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_1778 х 30% + 7222 х 55% = 4505,5 тис. грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="192" customHeight="1">
-      <c r="A4" s="170"/>
+      <c r="A4" s="168"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1">
       <c r="A5" s="63" t="str">
@@ -6036,13 +6028,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="333" customHeight="1">
-      <c r="A6" s="170" t="str">
+      <c r="A6" s="168" t="str">
         <f>Таблиця_4!A15</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_ 2477,6 тис. грн. / 78100 x 1000 = 31,7 грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_ 2133,2 тис. грн. / 51975 x 1000 = 41 грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_ 2077,6 тис. грн. / 31600 x 1000 = 65,7 грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_ 2927,75 тис. грн. / 3000 x 1000 = 975,9 грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_ 12627,65 тис. грн. / 40000 x 1000 = 315,7 грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_ 4505,5 тис. грн. / 8500 x 1000 = 530,1 грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_ 4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="271" customHeight="1">
-      <c r="A7" s="170"/>
+      <c r="A7" s="168"/>
     </row>
     <row r="8" spans="1:9" ht="34" customHeight="1">
       <c r="A8" s="63" t="str">
@@ -6051,7 +6043,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="409" customHeight="1">
-      <c r="A9" s="170" t="str">
+      <c r="A9" s="168" t="str">
         <f>Таблиця_4!A19</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми;_x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:
      ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми,_x000D_     ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.),_x000D_     ВД_4. Підготовка та відправлення замовнику запасних частин;_x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:
@@ -6061,7 +6053,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="149" customHeight="1">
-      <c r="A10" s="170"/>
+      <c r="A10" s="168"/>
     </row>
     <row r="11" spans="1:9"/>
     <row r="12" spans="1:9" ht="27" customHeight="1">

--- a/xlsx/template.xlsx
+++ b/xlsx/template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Toxa/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Toxa/Projects/test/emit/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15740" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Варіанти" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Таблиця_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Таблиця_1" sheetId="2" r:id="rId1"/>
+    <sheet name="Варіанти" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Таблиця_2" sheetId="3" r:id="rId3"/>
     <sheet name="Таблиця_3" sheetId="4" r:id="rId4"/>
     <sheet name="Таблиця_4" sheetId="5" r:id="rId5"/>
@@ -25,7 +25,7 @@
     <definedName name="Номера_варіантів">Варіанти!$A$1:$AA$15</definedName>
     <definedName name="Таблица_3">Таблиця_3!$C$3:$G$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Звіт!$A$1:$A$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Таблиця_1!$B$6:$C$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Таблиця_1!$B$6:$C$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Таблиця_2!$A$1:$G$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Таблиця_3!$A$1:$H$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Таблиця_4!$A$1:$H$10</definedName>
@@ -1576,174 +1576,15 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1763,6 +1604,165 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
@@ -2170,6 +2170,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="array" ref="C3">MAX((IF(Номера_варіантів=C1,COLUMN(Номера_варіантів))))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="str">
+        <f t="array" ref="B6:B18">INDEX(Варіанти,A6:A18,1)</f>
+        <v>Центр витрат (ЦВ)</v>
+      </c>
+      <c r="C6" s="14" t="str">
+        <f>INDEX(Варіанти,A6:A18,2)</f>
+        <v>Сума витрат за ЦВ, тис. Грн</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <v>A. Приймання та ідентифікація категорії звернень</v>
+      </c>
+      <c r="C7" s="67">
+        <f>INDEX(Варіанти,A7,$C$3)</f>
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <f t="shared" ref="A8:A18" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="str">
+        <v>В. Адміністративні витрати</v>
+      </c>
+      <c r="C8" s="67">
+        <f>INDEX(Варіанти,A8,$C$3)</f>
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <v>C. Інженерна служба</v>
+      </c>
+      <c r="C9" s="67">
+        <f>INDEX(Варіанти,A9,$C$3)</f>
+        <v>18333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="str">
+        <v>D. Витрати на субпідрядні роботи</v>
+      </c>
+      <c r="C10" s="67">
+        <f>INDEX(Варіанти,A10,$C$3)</f>
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B11" s="16" t="str">
+        <v>Разом витрат у періоді</v>
+      </c>
+      <c r="C11" s="67">
+        <f>INDEX(Варіанти,A11,$C$3)</f>
+        <v>30777</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <v>Сервісна послуга</v>
+      </c>
+      <c r="C12" s="68" t="str">
+        <f>INDEX(Варіанти,A12:A24,2)</f>
+        <v>Дохід (виручка) від надання сервісних послуг СП_1-5, тис. грн</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="str">
+        <v>СП_1_Дистанційне консультування клієнта</v>
+      </c>
+      <c r="C13" s="67">
+        <f t="shared" ref="C13:C18" si="1">INDEX(Варіанти,A13,$C$3)</f>
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="str">
+        <v>СП_2_Консультування та відправлення замовнику запасних частин</v>
+      </c>
+      <c r="C14" s="67">
+        <f t="shared" si="1"/>
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="str">
+        <v>СП_3_Послуги інженера СЦ на території замовника</v>
+      </c>
+      <c r="C15" s="67">
+        <f t="shared" si="1"/>
+        <v>24058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="15" t="str">
+        <v>СП_4_Послуги інженера третьої сторони на території замовника</v>
+      </c>
+      <c r="C16" s="67">
+        <f t="shared" si="1"/>
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="15" t="str">
+        <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
+      </c>
+      <c r="C17" s="67">
+        <f t="shared" si="1"/>
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="str">
+        <v>Разом доходів у періоді</v>
+      </c>
+      <c r="C18" s="67">
+        <f t="shared" si="1"/>
+        <v>36955</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Times New Roman,Курсив"&amp;14&amp;K000000Таблиця 1</oddHeader>
+  </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="C12" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2187,104 +2425,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:91" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="123" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="173"/>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="173"/>
-      <c r="BO1" s="173"/>
-      <c r="BP1" s="173"/>
-      <c r="BQ1" s="173"/>
-      <c r="BR1" s="173"/>
-      <c r="BS1" s="173"/>
-      <c r="BT1" s="173"/>
-      <c r="BU1" s="173"/>
-      <c r="BV1" s="173"/>
-      <c r="BW1" s="173"/>
-      <c r="BX1" s="173"/>
-      <c r="BY1" s="173"/>
-      <c r="BZ1" s="173"/>
-      <c r="CA1" s="173"/>
-      <c r="CB1" s="173"/>
-      <c r="CC1" s="173"/>
-      <c r="CD1" s="173"/>
-      <c r="CE1" s="173"/>
-      <c r="CF1" s="173"/>
-      <c r="CG1" s="173"/>
-      <c r="CH1" s="173"/>
-      <c r="CI1" s="173"/>
-      <c r="CJ1" s="173"/>
-      <c r="CK1" s="173"/>
-      <c r="CL1" s="173"/>
-      <c r="CM1" s="174"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137"/>
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
+      <c r="BG1" s="123"/>
+      <c r="BH1" s="123"/>
+      <c r="BI1" s="123"/>
+      <c r="BJ1" s="123"/>
+      <c r="BK1" s="123"/>
+      <c r="BL1" s="123"/>
+      <c r="BM1" s="123"/>
+      <c r="BN1" s="123"/>
+      <c r="BO1" s="123"/>
+      <c r="BP1" s="123"/>
+      <c r="BQ1" s="123"/>
+      <c r="BR1" s="123"/>
+      <c r="BS1" s="123"/>
+      <c r="BT1" s="123"/>
+      <c r="BU1" s="123"/>
+      <c r="BV1" s="123"/>
+      <c r="BW1" s="123"/>
+      <c r="BX1" s="123"/>
+      <c r="BY1" s="123"/>
+      <c r="BZ1" s="123"/>
+      <c r="CA1" s="123"/>
+      <c r="CB1" s="123"/>
+      <c r="CC1" s="123"/>
+      <c r="CD1" s="123"/>
+      <c r="CE1" s="123"/>
+      <c r="CF1" s="123"/>
+      <c r="CG1" s="123"/>
+      <c r="CH1" s="123"/>
+      <c r="CI1" s="123"/>
+      <c r="CJ1" s="123"/>
+      <c r="CK1" s="123"/>
+      <c r="CL1" s="123"/>
+      <c r="CM1" s="124"/>
     </row>
     <row r="2" spans="1:91" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175"/>
+      <c r="A2" s="136"/>
       <c r="B2" s="14">
         <v>1</v>
       </c>
@@ -2360,7 +2598,7 @@
       <c r="Z2" s="2">
         <v>25</v>
       </c>
-      <c r="AA2" s="168">
+      <c r="AA2" s="121">
         <v>26</v>
       </c>
       <c r="AB2" s="55">
@@ -2552,7 +2790,7 @@
       <c r="CL2" s="55">
         <v>89</v>
       </c>
-      <c r="CM2" s="176">
+      <c r="CM2" s="125">
         <v>90</v>
       </c>
     </row>
@@ -2560,371 +2798,371 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="169"/>
-      <c r="AN3" s="169"/>
-      <c r="AO3" s="169"/>
-      <c r="AP3" s="169"/>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="169"/>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="169"/>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="169"/>
-      <c r="AZ3" s="169"/>
-      <c r="BA3" s="169"/>
-      <c r="BB3" s="169"/>
-      <c r="BC3" s="169"/>
-      <c r="BD3" s="169"/>
-      <c r="BE3" s="169"/>
-      <c r="BF3" s="169"/>
-      <c r="BG3" s="169"/>
-      <c r="BH3" s="169"/>
-      <c r="BI3" s="169"/>
-      <c r="BJ3" s="169"/>
-      <c r="BK3" s="169"/>
-      <c r="BL3" s="169"/>
-      <c r="BM3" s="169"/>
-      <c r="BN3" s="169"/>
-      <c r="BO3" s="169"/>
-      <c r="BP3" s="169"/>
-      <c r="BQ3" s="169"/>
-      <c r="BR3" s="169"/>
-      <c r="BS3" s="169"/>
-      <c r="BT3" s="169"/>
-      <c r="BU3" s="169"/>
-      <c r="BV3" s="169"/>
-      <c r="BW3" s="169"/>
-      <c r="BX3" s="169"/>
-      <c r="BY3" s="169"/>
-      <c r="BZ3" s="169"/>
-      <c r="CA3" s="169"/>
-      <c r="CB3" s="169"/>
-      <c r="CC3" s="169"/>
-      <c r="CD3" s="169"/>
-      <c r="CE3" s="169"/>
-      <c r="CF3" s="169"/>
-      <c r="CG3" s="169"/>
-      <c r="CH3" s="169"/>
-      <c r="CI3" s="169"/>
-      <c r="CJ3" s="169"/>
-      <c r="CK3" s="169"/>
-      <c r="CL3" s="169"/>
-      <c r="CM3" s="177"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138"/>
+      <c r="AO3" s="138"/>
+      <c r="AP3" s="138"/>
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="138"/>
+      <c r="AT3" s="138"/>
+      <c r="AU3" s="138"/>
+      <c r="AV3" s="138"/>
+      <c r="AW3" s="138"/>
+      <c r="AX3" s="138"/>
+      <c r="AY3" s="138"/>
+      <c r="AZ3" s="138"/>
+      <c r="BA3" s="138"/>
+      <c r="BB3" s="138"/>
+      <c r="BC3" s="138"/>
+      <c r="BD3" s="138"/>
+      <c r="BE3" s="138"/>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="138"/>
+      <c r="BH3" s="138"/>
+      <c r="BI3" s="138"/>
+      <c r="BJ3" s="138"/>
+      <c r="BK3" s="138"/>
+      <c r="BL3" s="138"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="138"/>
+      <c r="BO3" s="138"/>
+      <c r="BP3" s="138"/>
+      <c r="BQ3" s="138"/>
+      <c r="BR3" s="138"/>
+      <c r="BS3" s="138"/>
+      <c r="BT3" s="138"/>
+      <c r="BU3" s="138"/>
+      <c r="BV3" s="138"/>
+      <c r="BW3" s="138"/>
+      <c r="BX3" s="138"/>
+      <c r="BY3" s="138"/>
+      <c r="BZ3" s="138"/>
+      <c r="CA3" s="138"/>
+      <c r="CB3" s="138"/>
+      <c r="CC3" s="138"/>
+      <c r="CD3" s="138"/>
+      <c r="CE3" s="138"/>
+      <c r="CF3" s="138"/>
+      <c r="CG3" s="138"/>
+      <c r="CH3" s="138"/>
+      <c r="CI3" s="138"/>
+      <c r="CJ3" s="138"/>
+      <c r="CK3" s="138"/>
+      <c r="CL3" s="138"/>
+      <c r="CM3" s="139"/>
     </row>
     <row r="4" spans="1:91" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="179">
+      <c r="B4" s="126">
         <v>2021</v>
       </c>
-      <c r="C4" s="180">
+      <c r="C4" s="127">
         <v>9981</v>
       </c>
-      <c r="D4" s="180">
+      <c r="D4" s="127">
         <v>9940</v>
       </c>
-      <c r="E4" s="180">
+      <c r="E4" s="127">
         <v>2025</v>
       </c>
-      <c r="F4" s="180">
+      <c r="F4" s="127">
         <v>2362</v>
       </c>
-      <c r="G4" s="180">
+      <c r="G4" s="127">
         <v>9042</v>
       </c>
-      <c r="H4" s="180">
+      <c r="H4" s="127">
         <v>9521</v>
       </c>
-      <c r="I4" s="180">
+      <c r="I4" s="127">
         <v>2969</v>
       </c>
-      <c r="J4" s="180">
+      <c r="J4" s="127">
         <v>8709</v>
       </c>
-      <c r="K4" s="180">
+      <c r="K4" s="127">
         <v>3038</v>
       </c>
-      <c r="L4" s="180">
+      <c r="L4" s="127">
         <v>3100</v>
       </c>
-      <c r="M4" s="180">
+      <c r="M4" s="127">
         <v>8124</v>
       </c>
-      <c r="N4" s="180">
+      <c r="N4" s="127">
         <v>8165</v>
       </c>
-      <c r="O4" s="180">
+      <c r="O4" s="127">
         <v>3200</v>
       </c>
-      <c r="P4" s="180">
+      <c r="P4" s="127">
         <v>3250</v>
       </c>
-      <c r="Q4" s="180">
+      <c r="Q4" s="127">
         <v>7719</v>
       </c>
-      <c r="R4" s="180">
+      <c r="R4" s="127">
         <v>8049</v>
       </c>
-      <c r="S4" s="180">
+      <c r="S4" s="127">
         <v>3333</v>
       </c>
-      <c r="T4" s="180">
+      <c r="T4" s="127">
         <v>3408</v>
       </c>
-      <c r="U4" s="180">
+      <c r="U4" s="127">
         <v>7348</v>
       </c>
-      <c r="V4" s="180">
+      <c r="V4" s="127">
         <v>7355</v>
       </c>
-      <c r="W4" s="180">
+      <c r="W4" s="127">
         <v>3410</v>
       </c>
-      <c r="X4" s="180">
+      <c r="X4" s="127">
         <v>3444</v>
       </c>
-      <c r="Y4" s="180">
+      <c r="Y4" s="127">
         <v>7025</v>
       </c>
-      <c r="Z4" s="180">
+      <c r="Z4" s="127">
         <v>7100</v>
       </c>
-      <c r="AA4" s="180">
+      <c r="AA4" s="127">
         <v>3450</v>
       </c>
-      <c r="AB4" s="181">
+      <c r="AB4" s="128">
         <v>3483</v>
       </c>
-      <c r="AC4" s="181">
+      <c r="AC4" s="128">
         <v>6630</v>
       </c>
-      <c r="AD4" s="181">
+      <c r="AD4" s="128">
         <v>6981</v>
       </c>
-      <c r="AE4" s="181">
+      <c r="AE4" s="128">
         <v>3490</v>
       </c>
-      <c r="AF4" s="181">
+      <c r="AF4" s="128">
         <v>3712</v>
       </c>
-      <c r="AG4" s="181">
+      <c r="AG4" s="128">
         <v>3716</v>
       </c>
-      <c r="AH4" s="181">
+      <c r="AH4" s="128">
         <v>4610</v>
       </c>
-      <c r="AI4" s="181">
+      <c r="AI4" s="128">
         <v>5120</v>
       </c>
-      <c r="AJ4" s="181">
+      <c r="AJ4" s="128">
         <v>3827</v>
       </c>
-      <c r="AK4" s="181">
+      <c r="AK4" s="128">
         <v>3838</v>
       </c>
-      <c r="AL4" s="181">
+      <c r="AL4" s="128">
         <v>3933</v>
       </c>
-      <c r="AM4" s="181">
+      <c r="AM4" s="128">
         <v>3947</v>
       </c>
-      <c r="AN4" s="181">
+      <c r="AN4" s="128">
         <v>4282</v>
       </c>
-      <c r="AO4" s="181">
+      <c r="AO4" s="128">
         <v>4593</v>
       </c>
-      <c r="AP4" s="181">
+      <c r="AP4" s="128">
         <v>3849</v>
       </c>
-      <c r="AQ4" s="181">
+      <c r="AQ4" s="128">
         <v>3860</v>
       </c>
-      <c r="AR4" s="181">
+      <c r="AR4" s="128">
         <v>3720</v>
       </c>
-      <c r="AS4" s="181">
+      <c r="AS4" s="128">
         <v>3724</v>
       </c>
-      <c r="AT4" s="181">
+      <c r="AT4" s="128">
         <v>4141</v>
       </c>
-      <c r="AU4" s="181">
+      <c r="AU4" s="128">
         <v>3515</v>
       </c>
-      <c r="AV4" s="181">
+      <c r="AV4" s="128">
         <v>6123</v>
       </c>
-      <c r="AW4" s="181">
+      <c r="AW4" s="128">
         <v>6471</v>
       </c>
-      <c r="AX4" s="181">
+      <c r="AX4" s="128">
         <v>3558</v>
       </c>
-      <c r="AY4" s="181">
+      <c r="AY4" s="128">
         <v>3621</v>
       </c>
-      <c r="AZ4" s="181">
+      <c r="AZ4" s="128">
         <v>5879</v>
       </c>
-      <c r="BA4" s="181">
+      <c r="BA4" s="128">
         <v>6074</v>
       </c>
-      <c r="BB4" s="181">
+      <c r="BB4" s="128">
         <v>3633</v>
       </c>
-      <c r="BC4" s="181">
+      <c r="BC4" s="128">
         <v>3674</v>
       </c>
-      <c r="BD4" s="181">
+      <c r="BD4" s="128">
         <v>5580</v>
       </c>
-      <c r="BE4" s="181">
+      <c r="BE4" s="128">
         <v>5676</v>
       </c>
-      <c r="BF4" s="181">
+      <c r="BF4" s="128">
         <v>3680</v>
       </c>
-      <c r="BG4" s="181">
+      <c r="BG4" s="128">
         <v>3708</v>
       </c>
-      <c r="BH4" s="181">
+      <c r="BH4" s="128">
         <v>5240</v>
       </c>
-      <c r="BI4" s="181">
+      <c r="BI4" s="128">
         <v>5511</v>
       </c>
-      <c r="BJ4" s="181">
+      <c r="BJ4" s="128">
         <v>4274</v>
       </c>
-      <c r="BK4" s="181">
+      <c r="BK4" s="128">
         <v>4003</v>
       </c>
-      <c r="BL4" s="181">
+      <c r="BL4" s="128">
         <v>4017</v>
       </c>
-      <c r="BM4" s="181">
+      <c r="BM4" s="128">
         <v>4081</v>
       </c>
-      <c r="BN4" s="181">
+      <c r="BN4" s="128">
         <v>4133</v>
       </c>
-      <c r="BO4" s="181">
+      <c r="BO4" s="128">
         <v>3911</v>
       </c>
-      <c r="BP4" s="181">
+      <c r="BP4" s="128">
         <v>3919</v>
       </c>
-      <c r="BQ4" s="181">
+      <c r="BQ4" s="128">
         <v>3839</v>
       </c>
-      <c r="BR4" s="181">
+      <c r="BR4" s="128">
         <v>3847</v>
       </c>
-      <c r="BS4" s="181">
+      <c r="BS4" s="128">
         <v>3895</v>
       </c>
-      <c r="BT4" s="181">
+      <c r="BT4" s="128">
         <v>3903</v>
       </c>
-      <c r="BU4" s="181">
+      <c r="BU4" s="128">
         <v>3961</v>
       </c>
-      <c r="BV4" s="181">
+      <c r="BV4" s="128">
         <v>3975</v>
       </c>
-      <c r="BW4" s="181">
+      <c r="BW4" s="128">
         <v>3989</v>
       </c>
-      <c r="BX4" s="181">
+      <c r="BX4" s="128">
         <v>3999</v>
       </c>
-      <c r="BY4" s="181">
+      <c r="BY4" s="128">
         <v>3871</v>
       </c>
-      <c r="BZ4" s="181">
+      <c r="BZ4" s="128">
         <v>3879</v>
       </c>
-      <c r="CA4" s="181">
+      <c r="CA4" s="128">
         <v>3728</v>
       </c>
-      <c r="CB4" s="181">
+      <c r="CB4" s="128">
         <v>3739</v>
       </c>
-      <c r="CC4" s="181">
+      <c r="CC4" s="128">
         <v>3814</v>
       </c>
-      <c r="CD4" s="181">
+      <c r="CD4" s="128">
         <v>3816</v>
       </c>
-      <c r="CE4" s="181">
+      <c r="CE4" s="128">
         <v>3750</v>
       </c>
-      <c r="CF4" s="181">
+      <c r="CF4" s="128">
         <v>3761</v>
       </c>
-      <c r="CG4" s="181">
+      <c r="CG4" s="128">
         <v>3805</v>
       </c>
-      <c r="CH4" s="181">
+      <c r="CH4" s="128">
         <v>3811</v>
       </c>
-      <c r="CI4" s="181">
+      <c r="CI4" s="128">
         <v>3794</v>
       </c>
-      <c r="CJ4" s="181">
+      <c r="CJ4" s="128">
         <v>3800</v>
       </c>
-      <c r="CK4" s="181">
+      <c r="CK4" s="128">
         <v>3772</v>
       </c>
-      <c r="CL4" s="181">
+      <c r="CL4" s="128">
         <v>3783</v>
       </c>
-      <c r="CM4" s="182">
+      <c r="CM4" s="129">
         <v>3887</v>
       </c>
     </row>
@@ -2932,274 +3170,274 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="179">
+      <c r="B5" s="126">
         <v>1043</v>
       </c>
-      <c r="C5" s="180">
+      <c r="C5" s="127">
         <v>5594</v>
       </c>
-      <c r="D5" s="180">
+      <c r="D5" s="127">
         <v>5131</v>
       </c>
-      <c r="E5" s="180">
+      <c r="E5" s="127">
         <v>1095</v>
       </c>
-      <c r="F5" s="180">
+      <c r="F5" s="127">
         <v>1222</v>
       </c>
-      <c r="G5" s="180">
+      <c r="G5" s="127">
         <v>4667</v>
       </c>
-      <c r="H5" s="180">
+      <c r="H5" s="127">
         <v>5078</v>
       </c>
-      <c r="I5" s="180">
+      <c r="I5" s="127">
         <v>1659</v>
       </c>
-      <c r="J5" s="180">
+      <c r="J5" s="127">
         <v>4431</v>
       </c>
-      <c r="K5" s="180">
+      <c r="K5" s="127">
         <v>1568</v>
       </c>
-      <c r="L5" s="180">
+      <c r="L5" s="127">
         <v>1600</v>
       </c>
-      <c r="M5" s="180">
+      <c r="M5" s="127">
         <v>4028</v>
       </c>
-      <c r="N5" s="180">
+      <c r="N5" s="127">
         <v>4214</v>
       </c>
-      <c r="O5" s="180">
+      <c r="O5" s="127">
         <v>1627</v>
       </c>
-      <c r="P5" s="180">
+      <c r="P5" s="127">
         <v>1654</v>
       </c>
-      <c r="Q5" s="180">
+      <c r="Q5" s="127">
         <v>3938</v>
       </c>
-      <c r="R5" s="180">
+      <c r="R5" s="127">
         <v>4268</v>
       </c>
-      <c r="S5" s="180">
+      <c r="S5" s="127">
         <v>1681</v>
       </c>
-      <c r="T5" s="180">
+      <c r="T5" s="127">
         <v>1708</v>
       </c>
-      <c r="U5" s="180">
+      <c r="U5" s="127">
         <v>3793</v>
       </c>
-      <c r="V5" s="180">
+      <c r="V5" s="127">
         <v>3805</v>
       </c>
-      <c r="W5" s="180">
+      <c r="W5" s="127">
         <v>1760</v>
       </c>
-      <c r="X5" s="180">
+      <c r="X5" s="127">
         <v>1778</v>
       </c>
-      <c r="Y5" s="180">
+      <c r="Y5" s="127">
         <v>3560</v>
       </c>
-      <c r="Z5" s="180">
+      <c r="Z5" s="127">
         <v>3650</v>
       </c>
-      <c r="AA5" s="180">
+      <c r="AA5" s="127">
         <v>1810</v>
       </c>
-      <c r="AB5" s="181">
+      <c r="AB5" s="128">
         <v>1735</v>
       </c>
-      <c r="AC5" s="181">
+      <c r="AC5" s="128">
         <v>3356</v>
       </c>
-      <c r="AD5" s="181">
+      <c r="AD5" s="128">
         <v>3603</v>
       </c>
-      <c r="AE5" s="181">
+      <c r="AE5" s="128">
         <v>1801</v>
       </c>
-      <c r="AF5" s="181">
+      <c r="AF5" s="128">
         <v>1811</v>
       </c>
-      <c r="AG5" s="181">
+      <c r="AG5" s="128">
         <v>1822</v>
       </c>
-      <c r="AH5" s="181">
+      <c r="AH5" s="128">
         <v>2470</v>
       </c>
-      <c r="AI5" s="181">
+      <c r="AI5" s="128">
         <v>2593</v>
       </c>
-      <c r="AJ5" s="181">
+      <c r="AJ5" s="128">
         <v>1964</v>
       </c>
-      <c r="AK5" s="181">
+      <c r="AK5" s="128">
         <v>1978</v>
       </c>
-      <c r="AL5" s="181">
+      <c r="AL5" s="128">
         <v>2106</v>
       </c>
-      <c r="AM5" s="181">
+      <c r="AM5" s="128">
         <v>2117</v>
       </c>
-      <c r="AN5" s="181">
+      <c r="AN5" s="128">
         <v>2210</v>
       </c>
-      <c r="AO5" s="181">
+      <c r="AO5" s="128">
         <v>2370</v>
       </c>
-      <c r="AP5" s="181">
+      <c r="AP5" s="128">
         <v>1992</v>
       </c>
-      <c r="AQ5" s="181">
+      <c r="AQ5" s="128">
         <v>2006</v>
       </c>
-      <c r="AR5" s="181">
+      <c r="AR5" s="128">
         <v>1833</v>
       </c>
-      <c r="AS5" s="181">
+      <c r="AS5" s="128">
         <v>1844</v>
       </c>
-      <c r="AT5" s="181">
+      <c r="AT5" s="128">
         <v>2110</v>
       </c>
-      <c r="AU5" s="181">
+      <c r="AU5" s="128">
         <v>1820</v>
       </c>
-      <c r="AV5" s="181">
+      <c r="AV5" s="128">
         <v>3160</v>
       </c>
-      <c r="AW5" s="181">
+      <c r="AW5" s="128">
         <v>3445</v>
       </c>
-      <c r="AX5" s="181">
+      <c r="AX5" s="128">
         <v>1762</v>
       </c>
-      <c r="AY5" s="181">
+      <c r="AY5" s="128">
         <v>1969</v>
       </c>
-      <c r="AZ5" s="181">
+      <c r="AZ5" s="128">
         <v>3034</v>
       </c>
-      <c r="BA5" s="181">
+      <c r="BA5" s="128">
         <v>3214</v>
       </c>
-      <c r="BB5" s="181">
+      <c r="BB5" s="128">
         <v>1789</v>
       </c>
-      <c r="BC5" s="181">
+      <c r="BC5" s="128">
         <v>1896</v>
       </c>
-      <c r="BD5" s="181">
+      <c r="BD5" s="128">
         <v>2800</v>
       </c>
-      <c r="BE5" s="181">
+      <c r="BE5" s="128">
         <v>2984</v>
       </c>
-      <c r="BF5" s="181">
+      <c r="BF5" s="128">
         <v>1951</v>
       </c>
-      <c r="BG5" s="181">
+      <c r="BG5" s="128">
         <v>1800</v>
       </c>
-      <c r="BH5" s="181">
+      <c r="BH5" s="128">
         <v>2400</v>
       </c>
-      <c r="BI5" s="181">
+      <c r="BI5" s="128">
         <v>2844</v>
       </c>
-      <c r="BJ5" s="181">
+      <c r="BJ5" s="128">
         <v>2278</v>
       </c>
-      <c r="BK5" s="181">
+      <c r="BK5" s="128">
         <v>2161</v>
       </c>
-      <c r="BL5" s="181">
+      <c r="BL5" s="128">
         <v>2172</v>
       </c>
-      <c r="BM5" s="181">
+      <c r="BM5" s="128">
         <v>2106</v>
       </c>
-      <c r="BN5" s="181">
+      <c r="BN5" s="128">
         <v>2133</v>
       </c>
-      <c r="BO5" s="181">
+      <c r="BO5" s="128">
         <v>2084</v>
       </c>
-      <c r="BP5" s="181">
+      <c r="BP5" s="128">
         <v>2095</v>
       </c>
-      <c r="BQ5" s="181">
+      <c r="BQ5" s="128">
         <v>1982</v>
       </c>
-      <c r="BR5" s="181">
+      <c r="BR5" s="128">
         <v>1881</v>
       </c>
-      <c r="BS5" s="181">
+      <c r="BS5" s="128">
         <v>2062</v>
       </c>
-      <c r="BT5" s="181">
+      <c r="BT5" s="128">
         <v>2073</v>
       </c>
-      <c r="BU5" s="181">
+      <c r="BU5" s="128">
         <v>2128</v>
       </c>
-      <c r="BV5" s="181">
+      <c r="BV5" s="128">
         <v>2139</v>
       </c>
-      <c r="BW5" s="181">
+      <c r="BW5" s="128">
         <v>2150</v>
       </c>
-      <c r="BX5" s="181">
+      <c r="BX5" s="128">
         <v>2064</v>
       </c>
-      <c r="BY5" s="181">
+      <c r="BY5" s="128">
         <v>2020</v>
       </c>
-      <c r="BZ5" s="181">
+      <c r="BZ5" s="128">
         <v>2034</v>
       </c>
-      <c r="CA5" s="181">
+      <c r="CA5" s="128">
         <v>1855</v>
       </c>
-      <c r="CB5" s="181">
+      <c r="CB5" s="128">
         <v>1866</v>
       </c>
-      <c r="CC5" s="181">
+      <c r="CC5" s="128">
         <v>1945</v>
       </c>
-      <c r="CD5" s="181">
+      <c r="CD5" s="128">
         <v>1950</v>
       </c>
-      <c r="CE5" s="181">
+      <c r="CE5" s="128">
         <v>1878</v>
       </c>
-      <c r="CF5" s="181">
+      <c r="CF5" s="128">
         <v>1890</v>
       </c>
-      <c r="CG5" s="181">
+      <c r="CG5" s="128">
         <v>1938</v>
       </c>
-      <c r="CH5" s="181">
+      <c r="CH5" s="128">
         <v>1900</v>
       </c>
-      <c r="CI5" s="181">
+      <c r="CI5" s="128">
         <v>1926</v>
       </c>
-      <c r="CJ5" s="181">
+      <c r="CJ5" s="128">
         <v>1931</v>
       </c>
-      <c r="CK5" s="181">
+      <c r="CK5" s="128">
         <v>1902</v>
       </c>
-      <c r="CL5" s="181">
+      <c r="CL5" s="128">
         <v>1914</v>
       </c>
-      <c r="CM5" s="182">
+      <c r="CM5" s="129">
         <v>2048</v>
       </c>
     </row>
@@ -3207,274 +3445,274 @@
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="179">
+      <c r="B6" s="126">
         <v>10756</v>
       </c>
-      <c r="C6" s="180">
+      <c r="C6" s="127">
         <v>57689</v>
       </c>
-      <c r="D6" s="180">
+      <c r="D6" s="127">
         <v>52909</v>
       </c>
-      <c r="E6" s="180">
+      <c r="E6" s="127">
         <v>11050</v>
       </c>
-      <c r="F6" s="180">
+      <c r="F6" s="127">
         <v>15979</v>
       </c>
-      <c r="G6" s="180">
+      <c r="G6" s="127">
         <v>48128</v>
       </c>
-      <c r="H6" s="180">
+      <c r="H6" s="127">
         <v>57092</v>
       </c>
-      <c r="I6" s="180">
+      <c r="I6" s="127">
         <v>17605</v>
       </c>
-      <c r="J6" s="180">
+      <c r="J6" s="127">
         <v>43596</v>
       </c>
-      <c r="K6" s="180">
+      <c r="K6" s="127">
         <v>16170</v>
       </c>
-      <c r="L6" s="180">
+      <c r="L6" s="127">
         <v>16500</v>
       </c>
-      <c r="M6" s="180">
+      <c r="M6" s="127">
         <v>50076</v>
       </c>
-      <c r="N6" s="180">
+      <c r="N6" s="127">
         <v>43457</v>
       </c>
-      <c r="O6" s="180">
+      <c r="O6" s="127">
         <v>16532</v>
       </c>
-      <c r="P6" s="180">
+      <c r="P6" s="127">
         <v>16564</v>
       </c>
-      <c r="Q6" s="180">
+      <c r="Q6" s="127">
         <v>39082</v>
       </c>
-      <c r="R6" s="180">
+      <c r="R6" s="127">
         <v>45846</v>
       </c>
-      <c r="S6" s="180">
+      <c r="S6" s="127">
         <v>16596</v>
       </c>
-      <c r="T6" s="180">
+      <c r="T6" s="127">
         <v>16628</v>
       </c>
-      <c r="U6" s="180">
+      <c r="U6" s="127">
         <v>39111</v>
       </c>
-      <c r="V6" s="180">
+      <c r="V6" s="127">
         <v>39500</v>
       </c>
-      <c r="W6" s="180">
+      <c r="W6" s="127">
         <v>18150</v>
       </c>
-      <c r="X6" s="180">
+      <c r="X6" s="127">
         <v>18333</v>
       </c>
-      <c r="Y6" s="180">
+      <c r="Y6" s="127">
         <v>36210</v>
       </c>
-      <c r="Z6" s="180">
+      <c r="Z6" s="127">
         <v>35100</v>
       </c>
-      <c r="AA6" s="180">
+      <c r="AA6" s="127">
         <v>18400</v>
       </c>
-      <c r="AB6" s="181">
+      <c r="AB6" s="128">
         <v>16660</v>
       </c>
-      <c r="AC6" s="181">
+      <c r="AC6" s="128">
         <v>38021</v>
       </c>
-      <c r="AD6" s="181">
+      <c r="AD6" s="128">
         <v>37156</v>
       </c>
-      <c r="AE6" s="181">
+      <c r="AE6" s="128">
         <v>18578</v>
       </c>
-      <c r="AF6" s="181">
+      <c r="AF6" s="128">
         <v>16756</v>
       </c>
-      <c r="AG6" s="181">
+      <c r="AG6" s="128">
         <v>16780</v>
       </c>
-      <c r="AH6" s="181">
+      <c r="AH6" s="128">
         <v>25000</v>
       </c>
-      <c r="AI6" s="181">
+      <c r="AI6" s="128">
         <v>25280</v>
       </c>
-      <c r="AJ6" s="181">
+      <c r="AJ6" s="128">
         <v>17000</v>
       </c>
-      <c r="AK6" s="181">
+      <c r="AK6" s="128">
         <v>17021</v>
       </c>
-      <c r="AL6" s="181">
+      <c r="AL6" s="128">
         <v>17189</v>
       </c>
-      <c r="AM6" s="181">
+      <c r="AM6" s="128">
         <v>17204</v>
       </c>
-      <c r="AN6" s="181">
+      <c r="AN6" s="128">
         <v>22789</v>
       </c>
-      <c r="AO6" s="181">
+      <c r="AO6" s="128">
         <v>24444</v>
       </c>
-      <c r="AP6" s="181">
+      <c r="AP6" s="128">
         <v>17042</v>
       </c>
-      <c r="AQ6" s="181">
+      <c r="AQ6" s="128">
         <v>17063</v>
       </c>
-      <c r="AR6" s="181">
+      <c r="AR6" s="128">
         <v>16804</v>
       </c>
-      <c r="AS6" s="181">
+      <c r="AS6" s="128">
         <v>16820</v>
       </c>
-      <c r="AT6" s="181">
+      <c r="AT6" s="128">
         <v>21000</v>
       </c>
-      <c r="AU6" s="181">
+      <c r="AU6" s="128">
         <v>18600</v>
       </c>
-      <c r="AV6" s="181">
+      <c r="AV6" s="128">
         <v>32593</v>
       </c>
-      <c r="AW6" s="181">
+      <c r="AW6" s="128">
         <v>37016</v>
       </c>
-      <c r="AX6" s="181">
+      <c r="AX6" s="128">
         <v>16684</v>
       </c>
-      <c r="AY6" s="181">
+      <c r="AY6" s="128">
         <v>20692</v>
       </c>
-      <c r="AZ6" s="181">
+      <c r="AZ6" s="128">
         <v>31289</v>
       </c>
-      <c r="BA6" s="181">
+      <c r="BA6" s="128">
         <v>33999</v>
       </c>
-      <c r="BB6" s="181">
+      <c r="BB6" s="128">
         <v>16708</v>
       </c>
-      <c r="BC6" s="181">
+      <c r="BC6" s="128">
         <v>19556</v>
       </c>
-      <c r="BD6" s="181">
+      <c r="BD6" s="128">
         <v>25100</v>
       </c>
-      <c r="BE6" s="181">
+      <c r="BE6" s="128">
         <v>30981</v>
       </c>
-      <c r="BF6" s="181">
+      <c r="BF6" s="128">
         <v>18070</v>
       </c>
-      <c r="BG6" s="181">
+      <c r="BG6" s="128">
         <v>16732</v>
       </c>
-      <c r="BH6" s="181">
+      <c r="BH6" s="128">
         <v>21700</v>
       </c>
-      <c r="BI6" s="181">
+      <c r="BI6" s="128">
         <v>29333</v>
       </c>
-      <c r="BJ6" s="181">
+      <c r="BJ6" s="128">
         <v>23779</v>
       </c>
-      <c r="BK6" s="181">
+      <c r="BK6" s="128">
         <v>17264</v>
       </c>
-      <c r="BL6" s="181">
+      <c r="BL6" s="128">
         <v>17279</v>
       </c>
-      <c r="BM6" s="181">
+      <c r="BM6" s="128">
         <v>21723</v>
       </c>
-      <c r="BN6" s="181">
+      <c r="BN6" s="128">
         <v>22000</v>
       </c>
-      <c r="BO6" s="181">
+      <c r="BO6" s="128">
         <v>17159</v>
       </c>
-      <c r="BP6" s="181">
+      <c r="BP6" s="128">
         <v>17174</v>
       </c>
-      <c r="BQ6" s="181">
+      <c r="BQ6" s="128">
         <v>20436</v>
       </c>
-      <c r="BR6" s="181">
+      <c r="BR6" s="128">
         <v>20500</v>
       </c>
-      <c r="BS6" s="181">
+      <c r="BS6" s="128">
         <v>17129</v>
       </c>
-      <c r="BT6" s="181">
+      <c r="BT6" s="128">
         <v>17144</v>
       </c>
-      <c r="BU6" s="181">
+      <c r="BU6" s="128">
         <v>17219</v>
       </c>
-      <c r="BV6" s="181">
+      <c r="BV6" s="128">
         <v>17234</v>
       </c>
-      <c r="BW6" s="181">
+      <c r="BW6" s="128">
         <v>17249</v>
       </c>
-      <c r="BX6" s="181">
+      <c r="BX6" s="128">
         <v>21283</v>
       </c>
-      <c r="BY6" s="181">
+      <c r="BY6" s="128">
         <v>17084</v>
       </c>
-      <c r="BZ6" s="181">
+      <c r="BZ6" s="128">
         <v>17099</v>
       </c>
-      <c r="CA6" s="181">
+      <c r="CA6" s="128">
         <v>16836</v>
       </c>
-      <c r="CB6" s="181">
+      <c r="CB6" s="128">
         <v>16852</v>
       </c>
-      <c r="CC6" s="181">
+      <c r="CC6" s="128">
         <v>16961</v>
       </c>
-      <c r="CD6" s="181">
+      <c r="CD6" s="128">
         <v>16979</v>
       </c>
-      <c r="CE6" s="181">
+      <c r="CE6" s="128">
         <v>16868</v>
       </c>
-      <c r="CF6" s="181">
+      <c r="CF6" s="128">
         <v>16884</v>
       </c>
-      <c r="CG6" s="181">
+      <c r="CG6" s="128">
         <v>16958</v>
       </c>
-      <c r="CH6" s="181">
+      <c r="CH6" s="128">
         <v>15710</v>
       </c>
-      <c r="CI6" s="181">
+      <c r="CI6" s="128">
         <v>16937</v>
       </c>
-      <c r="CJ6" s="181">
+      <c r="CJ6" s="128">
         <v>16940</v>
       </c>
-      <c r="CK6" s="181">
+      <c r="CK6" s="128">
         <v>16900</v>
       </c>
-      <c r="CL6" s="181">
+      <c r="CL6" s="128">
         <v>16916</v>
       </c>
-      <c r="CM6" s="182">
+      <c r="CM6" s="129">
         <v>17114</v>
       </c>
     </row>
@@ -3482,274 +3720,274 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="179">
+      <c r="B7" s="126">
         <v>4237</v>
       </c>
-      <c r="C7" s="180">
+      <c r="C7" s="127">
         <v>22726</v>
       </c>
-      <c r="D7" s="180">
+      <c r="D7" s="127">
         <v>20843</v>
       </c>
-      <c r="E7" s="180">
+      <c r="E7" s="127">
         <v>4245</v>
       </c>
-      <c r="F7" s="180">
+      <c r="F7" s="127">
         <v>5852</v>
       </c>
-      <c r="G7" s="180">
+      <c r="G7" s="127">
         <v>18960</v>
       </c>
-      <c r="H7" s="180">
+      <c r="H7" s="127">
         <v>21902</v>
       </c>
-      <c r="I7" s="180">
+      <c r="I7" s="127">
         <v>6927</v>
       </c>
-      <c r="J7" s="180">
+      <c r="J7" s="127">
         <v>17391</v>
       </c>
-      <c r="K7" s="180">
+      <c r="K7" s="127">
         <v>6370</v>
       </c>
-      <c r="L7" s="180">
+      <c r="L7" s="127">
         <v>6500</v>
       </c>
-      <c r="M7" s="180">
+      <c r="M7" s="127">
         <v>18638</v>
       </c>
-      <c r="N7" s="180">
+      <c r="N7" s="127">
         <v>17119</v>
       </c>
-      <c r="O7" s="180">
+      <c r="O7" s="127">
         <v>6563</v>
       </c>
-      <c r="P7" s="180">
+      <c r="P7" s="127">
         <v>6626</v>
       </c>
-      <c r="Q7" s="180">
+      <c r="Q7" s="127">
         <v>15554</v>
       </c>
-      <c r="R7" s="180">
+      <c r="R7" s="127">
         <v>17873</v>
       </c>
-      <c r="S7" s="180">
+      <c r="S7" s="127">
         <v>6689</v>
       </c>
-      <c r="T7" s="180">
+      <c r="T7" s="127">
         <v>6707</v>
       </c>
-      <c r="U7" s="180">
+      <c r="U7" s="127">
         <v>15407</v>
       </c>
-      <c r="V7" s="180">
+      <c r="V7" s="127">
         <v>15800</v>
       </c>
-      <c r="W7" s="180">
+      <c r="W7" s="127">
         <v>7150</v>
       </c>
-      <c r="X7" s="180">
+      <c r="X7" s="127">
         <v>7222</v>
       </c>
-      <c r="Y7" s="180">
+      <c r="Y7" s="127">
         <v>14650</v>
       </c>
-      <c r="Z7" s="180">
+      <c r="Z7" s="127">
         <v>14700</v>
       </c>
-      <c r="AA7" s="180">
+      <c r="AA7" s="127">
         <v>7225</v>
       </c>
-      <c r="AB7" s="181">
+      <c r="AB7" s="128">
         <v>6725</v>
       </c>
-      <c r="AC7" s="181">
+      <c r="AC7" s="128">
         <v>14543</v>
       </c>
-      <c r="AD7" s="181">
+      <c r="AD7" s="128">
         <v>14637</v>
       </c>
-      <c r="AE7" s="181">
+      <c r="AE7" s="128">
         <v>7319</v>
       </c>
-      <c r="AF7" s="181">
+      <c r="AF7" s="128">
         <v>6797</v>
       </c>
-      <c r="AG7" s="181">
+      <c r="AG7" s="128">
         <v>6815</v>
       </c>
-      <c r="AH7" s="181">
+      <c r="AH7" s="128">
         <v>9780</v>
       </c>
-      <c r="AI7" s="181">
+      <c r="AI7" s="128">
         <v>10107</v>
       </c>
-      <c r="AJ7" s="181">
+      <c r="AJ7" s="128">
         <v>7130</v>
       </c>
-      <c r="AK7" s="181">
+      <c r="AK7" s="128">
         <v>7148</v>
       </c>
-      <c r="AL7" s="181">
+      <c r="AL7" s="128">
         <v>7328</v>
       </c>
-      <c r="AM7" s="181">
+      <c r="AM7" s="128">
         <v>7350</v>
       </c>
-      <c r="AN7" s="181">
+      <c r="AN7" s="128">
         <v>8977</v>
       </c>
-      <c r="AO7" s="181">
+      <c r="AO7" s="128">
         <v>9630</v>
       </c>
-      <c r="AP7" s="181">
+      <c r="AP7" s="128">
         <v>7166</v>
       </c>
-      <c r="AQ7" s="181">
+      <c r="AQ7" s="128">
         <v>7184</v>
       </c>
-      <c r="AR7" s="181">
+      <c r="AR7" s="128">
         <v>6833</v>
       </c>
-      <c r="AS7" s="181">
+      <c r="AS7" s="128">
         <v>6851</v>
       </c>
-      <c r="AT7" s="181">
+      <c r="AT7" s="128">
         <v>8700</v>
       </c>
-      <c r="AU7" s="181">
+      <c r="AU7" s="128">
         <v>7325</v>
       </c>
-      <c r="AV7" s="181">
+      <c r="AV7" s="128">
         <v>12840</v>
       </c>
-      <c r="AW7" s="181">
+      <c r="AW7" s="128">
         <v>14448</v>
       </c>
-      <c r="AX7" s="181">
+      <c r="AX7" s="128">
         <v>6743</v>
       </c>
-      <c r="AY7" s="181">
+      <c r="AY7" s="128">
         <v>8145</v>
       </c>
-      <c r="AZ7" s="181">
+      <c r="AZ7" s="128">
         <v>12326</v>
       </c>
-      <c r="BA7" s="181">
+      <c r="BA7" s="128">
         <v>13325</v>
       </c>
-      <c r="BB7" s="181">
+      <c r="BB7" s="128">
         <v>6761</v>
       </c>
-      <c r="BC7" s="181">
+      <c r="BC7" s="128">
         <v>7704</v>
       </c>
-      <c r="BD7" s="181">
+      <c r="BD7" s="128">
         <v>11200</v>
       </c>
-      <c r="BE7" s="181">
+      <c r="BE7" s="128">
         <v>12201</v>
       </c>
-      <c r="BF7" s="181">
+      <c r="BF7" s="128">
         <v>7721</v>
       </c>
-      <c r="BG7" s="181">
+      <c r="BG7" s="128">
         <v>6779</v>
       </c>
-      <c r="BH7" s="181">
+      <c r="BH7" s="128">
         <v>11000</v>
       </c>
-      <c r="BI7" s="181">
+      <c r="BI7" s="128">
         <v>11556</v>
       </c>
-      <c r="BJ7" s="181">
+      <c r="BJ7" s="128">
         <v>9363</v>
       </c>
-      <c r="BK7" s="181">
+      <c r="BK7" s="128">
         <v>7438</v>
       </c>
-      <c r="BL7" s="181">
+      <c r="BL7" s="128">
         <v>7460</v>
       </c>
-      <c r="BM7" s="181">
+      <c r="BM7" s="128">
         <v>8558</v>
       </c>
-      <c r="BN7" s="181">
+      <c r="BN7" s="128">
         <v>8667</v>
       </c>
-      <c r="BO7" s="181">
+      <c r="BO7" s="128">
         <v>7292</v>
       </c>
-      <c r="BP7" s="181">
+      <c r="BP7" s="128">
         <v>7310</v>
       </c>
-      <c r="BQ7" s="181">
+      <c r="BQ7" s="128">
         <v>8050</v>
       </c>
-      <c r="BR7" s="181">
+      <c r="BR7" s="128">
         <v>8010</v>
       </c>
-      <c r="BS7" s="181">
+      <c r="BS7" s="128">
         <v>7256</v>
       </c>
-      <c r="BT7" s="181">
+      <c r="BT7" s="128">
         <v>7274</v>
       </c>
-      <c r="BU7" s="181">
+      <c r="BU7" s="128">
         <v>7372</v>
       </c>
-      <c r="BV7" s="181">
+      <c r="BV7" s="128">
         <v>7394</v>
       </c>
-      <c r="BW7" s="181">
+      <c r="BW7" s="128">
         <v>7416</v>
       </c>
-      <c r="BX7" s="181">
+      <c r="BX7" s="128">
         <v>8384</v>
       </c>
-      <c r="BY7" s="181">
+      <c r="BY7" s="128">
         <v>7202</v>
       </c>
-      <c r="BZ7" s="181">
+      <c r="BZ7" s="128">
         <v>7220</v>
       </c>
-      <c r="CA7" s="181">
+      <c r="CA7" s="128">
         <v>6869</v>
       </c>
-      <c r="CB7" s="181">
+      <c r="CB7" s="128">
         <v>6898</v>
       </c>
-      <c r="CC7" s="181">
+      <c r="CC7" s="128">
         <v>7085</v>
       </c>
-      <c r="CD7" s="181">
+      <c r="CD7" s="128">
         <v>7101</v>
       </c>
-      <c r="CE7" s="181">
+      <c r="CE7" s="128">
         <v>6927</v>
       </c>
-      <c r="CF7" s="181">
+      <c r="CF7" s="128">
         <v>6956</v>
       </c>
-      <c r="CG7" s="181">
+      <c r="CG7" s="128">
         <v>7072</v>
       </c>
-      <c r="CH7" s="181">
+      <c r="CH7" s="128">
         <v>7050</v>
       </c>
-      <c r="CI7" s="181">
+      <c r="CI7" s="128">
         <v>7043</v>
       </c>
-      <c r="CJ7" s="181">
+      <c r="CJ7" s="128">
         <v>7050</v>
       </c>
-      <c r="CK7" s="181">
+      <c r="CK7" s="128">
         <v>6985</v>
       </c>
-      <c r="CL7" s="181">
+      <c r="CL7" s="128">
         <v>7014</v>
       </c>
-      <c r="CM7" s="182">
+      <c r="CM7" s="129">
         <v>7238</v>
       </c>
     </row>
@@ -3757,274 +3995,274 @@
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="183">
+      <c r="B8" s="130">
         <v>18057</v>
       </c>
-      <c r="C8" s="180">
+      <c r="C8" s="127">
         <v>95990</v>
       </c>
-      <c r="D8" s="180">
+      <c r="D8" s="127">
         <v>88823</v>
       </c>
-      <c r="E8" s="180">
+      <c r="E8" s="127">
         <v>18415</v>
       </c>
-      <c r="F8" s="180">
+      <c r="F8" s="127">
         <v>25415</v>
       </c>
-      <c r="G8" s="180">
+      <c r="G8" s="127">
         <v>80797</v>
       </c>
-      <c r="H8" s="180">
+      <c r="H8" s="127">
         <v>93593</v>
       </c>
-      <c r="I8" s="180">
+      <c r="I8" s="127">
         <v>29160</v>
       </c>
-      <c r="J8" s="180">
+      <c r="J8" s="127">
         <v>74127</v>
       </c>
-      <c r="K8" s="180">
+      <c r="K8" s="127">
         <v>27146</v>
       </c>
-      <c r="L8" s="180">
+      <c r="L8" s="127">
         <v>27700</v>
       </c>
-      <c r="M8" s="180">
+      <c r="M8" s="127">
         <v>80866</v>
       </c>
-      <c r="N8" s="180">
+      <c r="N8" s="127">
         <v>72955</v>
       </c>
-      <c r="O8" s="180">
+      <c r="O8" s="127">
         <v>27922</v>
       </c>
-      <c r="P8" s="180">
+      <c r="P8" s="127">
         <v>28094</v>
       </c>
-      <c r="Q8" s="180">
+      <c r="Q8" s="127">
         <v>66293</v>
       </c>
-      <c r="R8" s="180">
+      <c r="R8" s="127">
         <v>76036</v>
       </c>
-      <c r="S8" s="180">
+      <c r="S8" s="127">
         <v>28299</v>
       </c>
-      <c r="T8" s="180">
+      <c r="T8" s="127">
         <v>28451</v>
       </c>
-      <c r="U8" s="180">
+      <c r="U8" s="127">
         <v>65659</v>
       </c>
-      <c r="V8" s="180">
+      <c r="V8" s="127">
         <v>66460</v>
       </c>
-      <c r="W8" s="180">
+      <c r="W8" s="127">
         <v>30470</v>
       </c>
-      <c r="X8" s="180">
+      <c r="X8" s="127">
         <v>30777</v>
       </c>
-      <c r="Y8" s="180">
+      <c r="Y8" s="127">
         <v>61445</v>
       </c>
-      <c r="Z8" s="180">
+      <c r="Z8" s="127">
         <v>60550</v>
       </c>
-      <c r="AA8" s="180">
+      <c r="AA8" s="127">
         <v>30885</v>
       </c>
-      <c r="AB8" s="181">
+      <c r="AB8" s="128">
         <v>28603</v>
       </c>
-      <c r="AC8" s="181">
+      <c r="AC8" s="128">
         <v>62550</v>
       </c>
-      <c r="AD8" s="181">
+      <c r="AD8" s="128">
         <v>62377</v>
       </c>
-      <c r="AE8" s="181">
+      <c r="AE8" s="128">
         <v>31188</v>
       </c>
-      <c r="AF8" s="181">
+      <c r="AF8" s="128">
         <v>29076</v>
       </c>
-      <c r="AG8" s="181">
+      <c r="AG8" s="128">
         <v>29133</v>
       </c>
-      <c r="AH8" s="181">
+      <c r="AH8" s="128">
         <v>41860</v>
       </c>
-      <c r="AI8" s="181">
+      <c r="AI8" s="128">
         <v>43100</v>
       </c>
-      <c r="AJ8" s="181">
+      <c r="AJ8" s="128">
         <v>29921</v>
       </c>
-      <c r="AK8" s="181">
+      <c r="AK8" s="128">
         <v>29985</v>
       </c>
-      <c r="AL8" s="181">
+      <c r="AL8" s="128">
         <v>30556</v>
       </c>
-      <c r="AM8" s="181">
+      <c r="AM8" s="128">
         <v>30618</v>
       </c>
-      <c r="AN8" s="181">
+      <c r="AN8" s="128">
         <v>38258</v>
       </c>
-      <c r="AO8" s="181">
+      <c r="AO8" s="128">
         <v>41037</v>
       </c>
-      <c r="AP8" s="181">
+      <c r="AP8" s="128">
         <v>30049</v>
       </c>
-      <c r="AQ8" s="181">
+      <c r="AQ8" s="128">
         <v>30113</v>
       </c>
-      <c r="AR8" s="181">
+      <c r="AR8" s="128">
         <v>29190</v>
       </c>
-      <c r="AS8" s="181">
+      <c r="AS8" s="128">
         <v>29239</v>
       </c>
-      <c r="AT8" s="181">
+      <c r="AT8" s="128">
         <v>35951</v>
       </c>
-      <c r="AU8" s="181">
+      <c r="AU8" s="128">
         <v>31260</v>
       </c>
-      <c r="AV8" s="181">
+      <c r="AV8" s="128">
         <v>54716</v>
       </c>
-      <c r="AW8" s="181">
+      <c r="AW8" s="128">
         <v>61380</v>
       </c>
-      <c r="AX8" s="181">
+      <c r="AX8" s="128">
         <v>28747</v>
       </c>
-      <c r="AY8" s="181">
+      <c r="AY8" s="128">
         <v>34427</v>
       </c>
-      <c r="AZ8" s="181">
+      <c r="AZ8" s="128">
         <v>52528</v>
       </c>
-      <c r="BA8" s="181">
+      <c r="BA8" s="128">
         <v>56612</v>
       </c>
-      <c r="BB8" s="181">
+      <c r="BB8" s="128">
         <v>28891</v>
       </c>
-      <c r="BC8" s="181">
+      <c r="BC8" s="128">
         <v>32830</v>
       </c>
-      <c r="BD8" s="181">
+      <c r="BD8" s="128">
         <v>44680</v>
       </c>
-      <c r="BE8" s="181">
+      <c r="BE8" s="128">
         <v>51842</v>
       </c>
-      <c r="BF8" s="181">
+      <c r="BF8" s="128">
         <v>31422</v>
       </c>
-      <c r="BG8" s="181">
+      <c r="BG8" s="128">
         <v>29019</v>
       </c>
-      <c r="BH8" s="181">
+      <c r="BH8" s="128">
         <v>40340</v>
       </c>
-      <c r="BI8" s="181">
+      <c r="BI8" s="128">
         <v>49244</v>
       </c>
-      <c r="BJ8" s="181">
+      <c r="BJ8" s="128">
         <v>39694</v>
       </c>
-      <c r="BK8" s="181">
+      <c r="BK8" s="128">
         <v>30866</v>
       </c>
-      <c r="BL8" s="181">
+      <c r="BL8" s="128">
         <v>30928</v>
       </c>
-      <c r="BM8" s="181">
+      <c r="BM8" s="128">
         <v>36468</v>
       </c>
-      <c r="BN8" s="181">
+      <c r="BN8" s="128">
         <v>36933</v>
       </c>
-      <c r="BO8" s="181">
+      <c r="BO8" s="128">
         <v>30446</v>
       </c>
-      <c r="BP8" s="181">
+      <c r="BP8" s="128">
         <v>30498</v>
       </c>
-      <c r="BQ8" s="181">
+      <c r="BQ8" s="128">
         <v>34307</v>
       </c>
-      <c r="BR8" s="181">
+      <c r="BR8" s="128">
         <v>34238</v>
       </c>
-      <c r="BS8" s="181">
+      <c r="BS8" s="128">
         <v>30342</v>
       </c>
-      <c r="BT8" s="181">
+      <c r="BT8" s="128">
         <v>30394</v>
       </c>
-      <c r="BU8" s="181">
+      <c r="BU8" s="128">
         <v>30680</v>
       </c>
-      <c r="BV8" s="181">
+      <c r="BV8" s="128">
         <v>30742</v>
       </c>
-      <c r="BW8" s="181">
+      <c r="BW8" s="128">
         <v>30804</v>
       </c>
-      <c r="BX8" s="181">
+      <c r="BX8" s="128">
         <v>35730</v>
       </c>
-      <c r="BY8" s="181">
+      <c r="BY8" s="128">
         <v>30177</v>
       </c>
-      <c r="BZ8" s="181">
+      <c r="BZ8" s="128">
         <v>30232</v>
       </c>
-      <c r="CA8" s="181">
+      <c r="CA8" s="128">
         <v>29288</v>
       </c>
-      <c r="CB8" s="181">
+      <c r="CB8" s="128">
         <v>29355</v>
       </c>
-      <c r="CC8" s="181">
+      <c r="CC8" s="128">
         <v>29805</v>
       </c>
-      <c r="CD8" s="181">
+      <c r="CD8" s="128">
         <v>29846</v>
       </c>
-      <c r="CE8" s="181">
+      <c r="CE8" s="128">
         <v>29423</v>
       </c>
-      <c r="CF8" s="181">
+      <c r="CF8" s="128">
         <v>29491</v>
       </c>
-      <c r="CG8" s="181">
+      <c r="CG8" s="128">
         <v>29773</v>
       </c>
-      <c r="CH8" s="181">
+      <c r="CH8" s="128">
         <v>28471</v>
       </c>
-      <c r="CI8" s="181">
+      <c r="CI8" s="128">
         <v>29700</v>
       </c>
-      <c r="CJ8" s="181">
+      <c r="CJ8" s="128">
         <v>29721</v>
       </c>
-      <c r="CK8" s="181">
+      <c r="CK8" s="128">
         <v>29559</v>
       </c>
-      <c r="CL8" s="181">
+      <c r="CL8" s="128">
         <v>29627</v>
       </c>
-      <c r="CM8" s="182">
+      <c r="CM8" s="129">
         <v>30287</v>
       </c>
     </row>
@@ -4032,371 +4270,371 @@
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="170"/>
-      <c r="AA9" s="170"/>
-      <c r="AB9" s="170"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="170"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="170"/>
-      <c r="AH9" s="170"/>
-      <c r="AI9" s="170"/>
-      <c r="AJ9" s="170"/>
-      <c r="AK9" s="170"/>
-      <c r="AL9" s="170"/>
-      <c r="AM9" s="170"/>
-      <c r="AN9" s="170"/>
-      <c r="AO9" s="170"/>
-      <c r="AP9" s="170"/>
-      <c r="AQ9" s="170"/>
-      <c r="AR9" s="170"/>
-      <c r="AS9" s="170"/>
-      <c r="AT9" s="170"/>
-      <c r="AU9" s="170"/>
-      <c r="AV9" s="170"/>
-      <c r="AW9" s="170"/>
-      <c r="AX9" s="170"/>
-      <c r="AY9" s="170"/>
-      <c r="AZ9" s="170"/>
-      <c r="BA9" s="170"/>
-      <c r="BB9" s="170"/>
-      <c r="BC9" s="170"/>
-      <c r="BD9" s="170"/>
-      <c r="BE9" s="170"/>
-      <c r="BF9" s="170"/>
-      <c r="BG9" s="170"/>
-      <c r="BH9" s="170"/>
-      <c r="BI9" s="170"/>
-      <c r="BJ9" s="170"/>
-      <c r="BK9" s="170"/>
-      <c r="BL9" s="170"/>
-      <c r="BM9" s="170"/>
-      <c r="BN9" s="170"/>
-      <c r="BO9" s="170"/>
-      <c r="BP9" s="170"/>
-      <c r="BQ9" s="170"/>
-      <c r="BR9" s="170"/>
-      <c r="BS9" s="170"/>
-      <c r="BT9" s="170"/>
-      <c r="BU9" s="170"/>
-      <c r="BV9" s="170"/>
-      <c r="BW9" s="170"/>
-      <c r="BX9" s="170"/>
-      <c r="BY9" s="170"/>
-      <c r="BZ9" s="170"/>
-      <c r="CA9" s="170"/>
-      <c r="CB9" s="170"/>
-      <c r="CC9" s="170"/>
-      <c r="CD9" s="170"/>
-      <c r="CE9" s="170"/>
-      <c r="CF9" s="170"/>
-      <c r="CG9" s="170"/>
-      <c r="CH9" s="170"/>
-      <c r="CI9" s="170"/>
-      <c r="CJ9" s="170"/>
-      <c r="CK9" s="170"/>
-      <c r="CL9" s="170"/>
-      <c r="CM9" s="178"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="140"/>
+      <c r="AJ9" s="140"/>
+      <c r="AK9" s="140"/>
+      <c r="AL9" s="140"/>
+      <c r="AM9" s="140"/>
+      <c r="AN9" s="140"/>
+      <c r="AO9" s="140"/>
+      <c r="AP9" s="140"/>
+      <c r="AQ9" s="140"/>
+      <c r="AR9" s="140"/>
+      <c r="AS9" s="140"/>
+      <c r="AT9" s="140"/>
+      <c r="AU9" s="140"/>
+      <c r="AV9" s="140"/>
+      <c r="AW9" s="140"/>
+      <c r="AX9" s="140"/>
+      <c r="AY9" s="140"/>
+      <c r="AZ9" s="140"/>
+      <c r="BA9" s="140"/>
+      <c r="BB9" s="140"/>
+      <c r="BC9" s="140"/>
+      <c r="BD9" s="140"/>
+      <c r="BE9" s="140"/>
+      <c r="BF9" s="140"/>
+      <c r="BG9" s="140"/>
+      <c r="BH9" s="140"/>
+      <c r="BI9" s="140"/>
+      <c r="BJ9" s="140"/>
+      <c r="BK9" s="140"/>
+      <c r="BL9" s="140"/>
+      <c r="BM9" s="140"/>
+      <c r="BN9" s="140"/>
+      <c r="BO9" s="140"/>
+      <c r="BP9" s="140"/>
+      <c r="BQ9" s="140"/>
+      <c r="BR9" s="140"/>
+      <c r="BS9" s="140"/>
+      <c r="BT9" s="140"/>
+      <c r="BU9" s="140"/>
+      <c r="BV9" s="140"/>
+      <c r="BW9" s="140"/>
+      <c r="BX9" s="140"/>
+      <c r="BY9" s="140"/>
+      <c r="BZ9" s="140"/>
+      <c r="CA9" s="140"/>
+      <c r="CB9" s="140"/>
+      <c r="CC9" s="140"/>
+      <c r="CD9" s="140"/>
+      <c r="CE9" s="140"/>
+      <c r="CF9" s="140"/>
+      <c r="CG9" s="140"/>
+      <c r="CH9" s="140"/>
+      <c r="CI9" s="140"/>
+      <c r="CJ9" s="140"/>
+      <c r="CK9" s="140"/>
+      <c r="CL9" s="140"/>
+      <c r="CM9" s="141"/>
     </row>
     <row r="10" spans="1:91" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="179">
+      <c r="B10" s="126">
         <v>1065</v>
       </c>
-      <c r="C10" s="180">
+      <c r="C10" s="127">
         <v>5293</v>
       </c>
-      <c r="D10" s="180">
+      <c r="D10" s="127">
         <v>4762</v>
       </c>
-      <c r="E10" s="180">
+      <c r="E10" s="127">
         <v>922</v>
       </c>
-      <c r="F10" s="180">
+      <c r="F10" s="127">
         <v>1387</v>
       </c>
-      <c r="G10" s="180">
+      <c r="G10" s="127">
         <v>6498</v>
       </c>
-      <c r="H10" s="180">
+      <c r="H10" s="127">
         <v>4840</v>
       </c>
-      <c r="I10" s="180">
+      <c r="I10" s="127">
         <v>1447</v>
       </c>
-      <c r="J10" s="180">
+      <c r="J10" s="127">
         <v>4452</v>
       </c>
-      <c r="K10" s="180">
+      <c r="K10" s="127">
         <v>1528</v>
       </c>
-      <c r="L10" s="180">
+      <c r="L10" s="127">
         <v>1634</v>
       </c>
-      <c r="M10" s="180">
+      <c r="M10" s="127">
         <v>6184</v>
       </c>
-      <c r="N10" s="180">
+      <c r="N10" s="127">
         <v>4303</v>
       </c>
-      <c r="O10" s="180">
+      <c r="O10" s="127">
         <v>1588</v>
       </c>
-      <c r="P10" s="180">
+      <c r="P10" s="127">
         <v>1530</v>
       </c>
-      <c r="Q10" s="180">
+      <c r="Q10" s="127">
         <v>3427</v>
       </c>
-      <c r="R10" s="180">
+      <c r="R10" s="127">
         <v>4400</v>
       </c>
-      <c r="S10" s="180">
+      <c r="S10" s="127">
         <v>2331</v>
       </c>
-      <c r="T10" s="180">
+      <c r="T10" s="127">
         <v>1570</v>
       </c>
-      <c r="U10" s="180">
+      <c r="U10" s="127">
         <v>3344</v>
       </c>
-      <c r="V10" s="180">
+      <c r="V10" s="127">
         <v>3936</v>
       </c>
-      <c r="W10" s="180">
+      <c r="W10" s="127">
         <v>1715</v>
       </c>
-      <c r="X10" s="180">
+      <c r="X10" s="127">
         <v>1815</v>
       </c>
-      <c r="Y10" s="180">
+      <c r="Y10" s="127">
         <v>5031</v>
       </c>
-      <c r="Z10" s="180">
+      <c r="Z10" s="127">
         <v>3206</v>
       </c>
-      <c r="AA10" s="180">
+      <c r="AA10" s="127">
         <v>1817</v>
       </c>
-      <c r="AB10" s="181">
+      <c r="AB10" s="128">
         <v>1665</v>
       </c>
-      <c r="AC10" s="181">
+      <c r="AC10" s="128">
         <v>3596</v>
       </c>
-      <c r="AD10" s="181">
+      <c r="AD10" s="128">
         <v>5017</v>
       </c>
-      <c r="AE10" s="181">
+      <c r="AE10" s="128">
         <v>1839</v>
       </c>
-      <c r="AF10" s="181">
+      <c r="AF10" s="128">
         <v>1761</v>
       </c>
-      <c r="AG10" s="181">
+      <c r="AG10" s="128">
         <v>2934</v>
       </c>
-      <c r="AH10" s="181">
+      <c r="AH10" s="128">
         <v>3549</v>
       </c>
-      <c r="AI10" s="181">
+      <c r="AI10" s="128">
         <v>2402</v>
       </c>
-      <c r="AJ10" s="181">
+      <c r="AJ10" s="128">
         <v>1814</v>
       </c>
-      <c r="AK10" s="181">
+      <c r="AK10" s="128">
         <v>3098</v>
       </c>
-      <c r="AL10" s="181">
+      <c r="AL10" s="128">
         <v>3145</v>
       </c>
-      <c r="AM10" s="181">
+      <c r="AM10" s="128">
         <v>1617</v>
       </c>
-      <c r="AN10" s="181">
+      <c r="AN10" s="128">
         <v>1672</v>
       </c>
-      <c r="AO10" s="181">
+      <c r="AO10" s="128">
         <v>2862</v>
       </c>
-      <c r="AP10" s="181">
+      <c r="AP10" s="128">
         <v>4144</v>
       </c>
-      <c r="AQ10" s="181">
+      <c r="AQ10" s="128">
         <v>1764</v>
       </c>
-      <c r="AR10" s="181">
+      <c r="AR10" s="128">
         <v>1552</v>
       </c>
-      <c r="AS10" s="181">
+      <c r="AS10" s="128">
         <v>2764</v>
       </c>
-      <c r="AT10" s="181">
+      <c r="AT10" s="128">
         <v>2772</v>
       </c>
-      <c r="AU10" s="181">
+      <c r="AU10" s="128">
         <v>1800</v>
       </c>
-      <c r="AV10" s="181">
+      <c r="AV10" s="128">
         <v>2460</v>
       </c>
-      <c r="AW10" s="181">
+      <c r="AW10" s="128">
         <v>2448</v>
       </c>
-      <c r="AX10" s="181">
+      <c r="AX10" s="128">
         <v>2481</v>
       </c>
-      <c r="AY10" s="181">
+      <c r="AY10" s="128">
         <v>1705</v>
       </c>
-      <c r="AZ10" s="181">
+      <c r="AZ10" s="128">
         <v>1880</v>
       </c>
-      <c r="BA10" s="181">
+      <c r="BA10" s="128">
         <v>1752</v>
       </c>
-      <c r="BB10" s="181">
+      <c r="BB10" s="128">
         <v>1934</v>
       </c>
-      <c r="BC10" s="181">
+      <c r="BC10" s="128">
         <v>2051</v>
       </c>
-      <c r="BD10" s="181">
+      <c r="BD10" s="128">
         <v>2421</v>
       </c>
-      <c r="BE10" s="181">
+      <c r="BE10" s="128">
         <v>1885</v>
       </c>
-      <c r="BF10" s="181">
+      <c r="BF10" s="128">
         <v>1804</v>
       </c>
-      <c r="BG10" s="181">
+      <c r="BG10" s="128">
         <v>1561</v>
       </c>
-      <c r="BH10" s="181">
+      <c r="BH10" s="128">
         <v>2470</v>
       </c>
-      <c r="BI10" s="181">
+      <c r="BI10" s="128">
         <v>1887</v>
       </c>
-      <c r="BJ10" s="181">
+      <c r="BJ10" s="128">
         <v>2316</v>
       </c>
-      <c r="BK10" s="181">
+      <c r="BK10" s="128">
         <v>2671</v>
       </c>
-      <c r="BL10" s="181">
+      <c r="BL10" s="128">
         <v>1786</v>
       </c>
-      <c r="BM10" s="181">
+      <c r="BM10" s="128">
         <v>1858</v>
       </c>
-      <c r="BN10" s="181">
+      <c r="BN10" s="128">
         <v>2178</v>
       </c>
-      <c r="BO10" s="181">
+      <c r="BO10" s="128">
         <v>1830</v>
       </c>
-      <c r="BP10" s="181">
+      <c r="BP10" s="128">
         <v>1922</v>
       </c>
-      <c r="BQ10" s="181">
+      <c r="BQ10" s="128">
         <v>2759</v>
       </c>
-      <c r="BR10" s="181">
+      <c r="BR10" s="128">
         <v>2019</v>
       </c>
-      <c r="BS10" s="181">
+      <c r="BS10" s="128">
         <v>1822</v>
       </c>
-      <c r="BT10" s="181">
+      <c r="BT10" s="128">
         <v>1739</v>
       </c>
-      <c r="BU10" s="181">
+      <c r="BU10" s="128">
         <v>1675</v>
       </c>
-      <c r="BV10" s="181">
+      <c r="BV10" s="128">
         <v>1946</v>
       </c>
-      <c r="BW10" s="181">
+      <c r="BW10" s="128">
         <v>2662</v>
       </c>
-      <c r="BX10" s="181">
+      <c r="BX10" s="128">
         <v>1916</v>
       </c>
-      <c r="BY10" s="181">
+      <c r="BY10" s="128">
         <v>1637</v>
       </c>
-      <c r="BZ10" s="181">
+      <c r="BZ10" s="128">
         <v>1900</v>
       </c>
-      <c r="CA10" s="181">
+      <c r="CA10" s="128">
         <v>1732</v>
       </c>
-      <c r="CB10" s="181">
+      <c r="CB10" s="128">
         <v>1822</v>
       </c>
-      <c r="CC10" s="181">
+      <c r="CC10" s="128">
         <v>2544</v>
       </c>
-      <c r="CD10" s="181">
+      <c r="CD10" s="128">
         <v>2548</v>
       </c>
-      <c r="CE10" s="181">
+      <c r="CE10" s="128">
         <v>1828</v>
       </c>
-      <c r="CF10" s="181">
+      <c r="CF10" s="128">
         <v>1752</v>
       </c>
-      <c r="CG10" s="181">
+      <c r="CG10" s="128">
         <v>1693</v>
       </c>
-      <c r="CH10" s="181">
+      <c r="CH10" s="128">
         <v>1860</v>
       </c>
-      <c r="CI10" s="181">
+      <c r="CI10" s="128">
         <v>2530</v>
       </c>
-      <c r="CJ10" s="181">
+      <c r="CJ10" s="128">
         <v>1689</v>
       </c>
-      <c r="CK10" s="181">
+      <c r="CK10" s="128">
         <v>1842</v>
       </c>
-      <c r="CL10" s="181">
+      <c r="CL10" s="128">
         <v>1764</v>
       </c>
-      <c r="CM10" s="182">
+      <c r="CM10" s="129">
         <v>1731</v>
       </c>
     </row>
@@ -4404,274 +4642,274 @@
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="179">
+      <c r="B11" s="126">
         <v>1746</v>
       </c>
-      <c r="C11" s="180">
+      <c r="C11" s="127">
         <v>12580</v>
       </c>
-      <c r="D11" s="180">
+      <c r="D11" s="127">
         <v>16169</v>
       </c>
-      <c r="E11" s="180">
+      <c r="E11" s="127">
         <v>2948</v>
       </c>
-      <c r="F11" s="180">
+      <c r="F11" s="127">
         <v>3528</v>
       </c>
-      <c r="G11" s="180">
+      <c r="G11" s="127">
         <v>7354</v>
       </c>
-      <c r="H11" s="180">
+      <c r="H11" s="127">
         <v>17152</v>
       </c>
-      <c r="I11" s="180">
+      <c r="I11" s="127">
         <v>4655</v>
       </c>
-      <c r="J11" s="180">
+      <c r="J11" s="127">
         <v>7566</v>
       </c>
-      <c r="K11" s="180">
+      <c r="K11" s="127">
         <v>3861</v>
       </c>
-      <c r="L11" s="180">
+      <c r="L11" s="127">
         <v>3782</v>
       </c>
-      <c r="M11" s="180">
+      <c r="M11" s="127">
         <v>7450</v>
       </c>
-      <c r="N11" s="180">
+      <c r="N11" s="127">
         <v>7470</v>
       </c>
-      <c r="O11" s="180">
+      <c r="O11" s="127">
         <v>3963</v>
       </c>
-      <c r="P11" s="180">
+      <c r="P11" s="127">
         <v>5097</v>
       </c>
-      <c r="Q11" s="180">
+      <c r="Q11" s="127">
         <v>10531</v>
       </c>
-      <c r="R11" s="180">
+      <c r="R11" s="127">
         <v>10413</v>
       </c>
-      <c r="S11" s="180">
+      <c r="S11" s="127">
         <v>2562</v>
       </c>
-      <c r="T11" s="180">
+      <c r="T11" s="127">
         <v>5150</v>
       </c>
-      <c r="U11" s="180">
+      <c r="U11" s="127">
         <v>10458</v>
       </c>
-      <c r="V11" s="180">
+      <c r="V11" s="127">
         <v>6788</v>
       </c>
-      <c r="W11" s="180">
+      <c r="W11" s="127">
         <v>4333</v>
       </c>
-      <c r="X11" s="180">
+      <c r="X11" s="127">
         <v>4202</v>
       </c>
-      <c r="Y11" s="180">
+      <c r="Y11" s="127">
         <v>5563</v>
       </c>
-      <c r="Z11" s="180">
+      <c r="Z11" s="127">
         <v>9530</v>
       </c>
-      <c r="AA11" s="180">
+      <c r="AA11" s="127">
         <v>3165</v>
       </c>
-      <c r="AB11" s="181">
+      <c r="AB11" s="128">
         <v>4043</v>
       </c>
-      <c r="AC11" s="181">
+      <c r="AC11" s="128">
         <v>8593</v>
       </c>
-      <c r="AD11" s="181">
+      <c r="AD11" s="128">
         <v>5678</v>
       </c>
-      <c r="AE11" s="181">
+      <c r="AE11" s="128">
         <v>3194</v>
       </c>
-      <c r="AF11" s="181">
+      <c r="AF11" s="128">
         <v>4446</v>
       </c>
-      <c r="AG11" s="181">
+      <c r="AG11" s="128">
         <v>9960</v>
       </c>
-      <c r="AH11" s="181">
+      <c r="AH11" s="128">
         <v>8405</v>
       </c>
-      <c r="AI11" s="181">
+      <c r="AI11" s="128">
         <v>2599</v>
       </c>
-      <c r="AJ11" s="181">
+      <c r="AJ11" s="128">
         <v>6277</v>
       </c>
-      <c r="AK11" s="181">
+      <c r="AK11" s="128">
         <v>5379</v>
       </c>
-      <c r="AL11" s="181">
+      <c r="AL11" s="128">
         <v>8066</v>
       </c>
-      <c r="AM11" s="181">
+      <c r="AM11" s="128">
         <v>5221</v>
       </c>
-      <c r="AN11" s="181">
+      <c r="AN11" s="128">
         <v>5229</v>
       </c>
-      <c r="AO11" s="181">
+      <c r="AO11" s="128">
         <v>5950</v>
       </c>
-      <c r="AP11" s="181">
+      <c r="AP11" s="128">
         <v>4721</v>
       </c>
-      <c r="AQ11" s="181">
+      <c r="AQ11" s="128">
         <v>5632</v>
       </c>
-      <c r="AR11" s="181">
+      <c r="AR11" s="128">
         <v>4585</v>
       </c>
-      <c r="AS11" s="181">
+      <c r="AS11" s="128">
         <v>3926</v>
       </c>
-      <c r="AT11" s="181">
+      <c r="AT11" s="128">
         <v>7003</v>
       </c>
-      <c r="AU11" s="181">
+      <c r="AU11" s="128">
         <v>3937</v>
       </c>
-      <c r="AV11" s="181">
+      <c r="AV11" s="128">
         <v>2630</v>
       </c>
-      <c r="AW11" s="181">
+      <c r="AW11" s="128">
         <v>4294</v>
       </c>
-      <c r="AX11" s="181">
+      <c r="AX11" s="128">
         <v>6106</v>
       </c>
-      <c r="AY11" s="181">
+      <c r="AY11" s="128">
         <v>5371</v>
       </c>
-      <c r="AZ11" s="181">
+      <c r="AZ11" s="128">
         <v>3027</v>
       </c>
-      <c r="BA11" s="181">
+      <c r="BA11" s="128">
         <v>5470</v>
       </c>
-      <c r="BB11" s="181">
+      <c r="BB11" s="128">
         <v>4109</v>
       </c>
-      <c r="BC11" s="181">
+      <c r="BC11" s="128">
         <v>6964</v>
       </c>
-      <c r="BD11" s="181">
+      <c r="BD11" s="128">
         <v>4202</v>
       </c>
-      <c r="BE11" s="181">
+      <c r="BE11" s="128">
         <v>4044</v>
       </c>
-      <c r="BF11" s="181">
+      <c r="BF11" s="128">
         <v>4220</v>
       </c>
-      <c r="BG11" s="181">
+      <c r="BG11" s="128">
         <v>4610</v>
       </c>
-      <c r="BH11" s="181">
+      <c r="BH11" s="128">
         <v>2638</v>
       </c>
-      <c r="BI11" s="181">
+      <c r="BI11" s="128">
         <v>5671</v>
       </c>
-      <c r="BJ11" s="181">
+      <c r="BJ11" s="128">
         <v>5425</v>
       </c>
-      <c r="BK11" s="181">
+      <c r="BK11" s="128">
         <v>2757</v>
       </c>
-      <c r="BL11" s="181">
+      <c r="BL11" s="128">
         <v>5523</v>
       </c>
-      <c r="BM11" s="181">
+      <c r="BM11" s="128">
         <v>5809</v>
       </c>
-      <c r="BN11" s="181">
+      <c r="BN11" s="128">
         <v>3782</v>
       </c>
-      <c r="BO11" s="181">
+      <c r="BO11" s="128">
         <v>4260</v>
       </c>
-      <c r="BP11" s="181">
+      <c r="BP11" s="128">
         <v>4096</v>
       </c>
-      <c r="BQ11" s="181">
+      <c r="BQ11" s="128">
         <v>3123</v>
       </c>
-      <c r="BR11" s="181">
+      <c r="BR11" s="128">
         <v>3510</v>
       </c>
-      <c r="BS11" s="181">
+      <c r="BS11" s="128">
         <v>4248</v>
       </c>
-      <c r="BT11" s="181">
+      <c r="BT11" s="128">
         <v>5445</v>
       </c>
-      <c r="BU11" s="181">
+      <c r="BU11" s="128">
         <v>4801</v>
       </c>
-      <c r="BV11" s="181">
+      <c r="BV11" s="128">
         <v>4122</v>
       </c>
-      <c r="BW11" s="181">
+      <c r="BW11" s="128">
         <v>2753</v>
       </c>
-      <c r="BX11" s="181">
+      <c r="BX11" s="128">
         <v>6504</v>
       </c>
-      <c r="BY11" s="181">
+      <c r="BY11" s="128">
         <v>4736</v>
       </c>
-      <c r="BZ11" s="181">
+      <c r="BZ11" s="128">
         <v>3049</v>
       </c>
-      <c r="CA11" s="181">
+      <c r="CA11" s="128">
         <v>4128</v>
       </c>
-      <c r="CB11" s="181">
+      <c r="CB11" s="128">
         <v>3969</v>
       </c>
-      <c r="CC11" s="181">
+      <c r="CC11" s="128">
         <v>2677</v>
       </c>
-      <c r="CD11" s="181">
+      <c r="CD11" s="128">
         <v>2680</v>
       </c>
-      <c r="CE11" s="181">
+      <c r="CE11" s="128">
         <v>2982</v>
       </c>
-      <c r="CF11" s="181">
+      <c r="CF11" s="128">
         <v>4149</v>
       </c>
-      <c r="CG11" s="181">
+      <c r="CG11" s="128">
         <v>5350</v>
       </c>
-      <c r="CH11" s="181">
+      <c r="CH11" s="128">
         <v>3782</v>
       </c>
-      <c r="CI11" s="181">
+      <c r="CI11" s="128">
         <v>2670</v>
       </c>
-      <c r="CJ11" s="181">
+      <c r="CJ11" s="128">
         <v>5343</v>
       </c>
-      <c r="CK11" s="181">
+      <c r="CK11" s="128">
         <v>2993</v>
       </c>
-      <c r="CL11" s="181">
+      <c r="CL11" s="128">
         <v>4163</v>
       </c>
-      <c r="CM11" s="182">
+      <c r="CM11" s="129">
         <v>5429</v>
       </c>
     </row>
@@ -4679,274 +4917,274 @@
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="179">
+      <c r="B12" s="126">
         <v>13572</v>
       </c>
-      <c r="C12" s="180">
+      <c r="C12" s="127">
         <v>60715</v>
       </c>
-      <c r="D12" s="180">
+      <c r="D12" s="127">
         <v>42727</v>
       </c>
-      <c r="E12" s="180">
+      <c r="E12" s="127">
         <v>8898</v>
       </c>
-      <c r="F12" s="180">
+      <c r="F12" s="127">
         <v>20252</v>
       </c>
-      <c r="G12" s="180">
+      <c r="G12" s="127">
         <v>43725</v>
       </c>
-      <c r="H12" s="180">
+      <c r="H12" s="127">
         <v>45374</v>
       </c>
-      <c r="I12" s="180">
+      <c r="I12" s="127">
         <v>14067</v>
       </c>
-      <c r="J12" s="180">
+      <c r="J12" s="127">
         <v>62158</v>
       </c>
-      <c r="K12" s="180">
+      <c r="K12" s="127">
         <v>26117</v>
       </c>
-      <c r="L12" s="180">
+      <c r="L12" s="127">
         <v>21653</v>
       </c>
-      <c r="M12" s="180">
+      <c r="M12" s="127">
         <v>44389</v>
       </c>
-      <c r="N12" s="180">
+      <c r="N12" s="127">
         <v>61415</v>
       </c>
-      <c r="O12" s="180">
+      <c r="O12" s="127">
         <v>26807</v>
       </c>
-      <c r="P12" s="180">
+      <c r="P12" s="127">
         <v>13463</v>
       </c>
-      <c r="Q12" s="180">
+      <c r="Q12" s="127">
         <v>31788</v>
       </c>
-      <c r="R12" s="180">
+      <c r="R12" s="127">
         <v>59651</v>
       </c>
-      <c r="S12" s="180">
+      <c r="S12" s="127">
         <v>15227</v>
       </c>
-      <c r="T12" s="180">
+      <c r="T12" s="127">
         <v>13598</v>
       </c>
-      <c r="U12" s="180">
+      <c r="U12" s="127">
         <v>31585</v>
       </c>
-      <c r="V12" s="180">
+      <c r="V12" s="127">
         <v>55820</v>
       </c>
-      <c r="W12" s="180">
+      <c r="W12" s="127">
         <v>29315</v>
       </c>
-      <c r="X12" s="180">
+      <c r="X12" s="127">
         <v>24058</v>
       </c>
-      <c r="Y12" s="180">
+      <c r="Y12" s="127">
         <v>33077</v>
       </c>
-      <c r="Z12" s="180">
+      <c r="Z12" s="127">
         <v>28763</v>
       </c>
-      <c r="AA12" s="180">
+      <c r="AA12" s="127">
         <v>26011</v>
       </c>
-      <c r="AB12" s="181">
+      <c r="AB12" s="128">
         <v>27322</v>
       </c>
-      <c r="AC12" s="181">
+      <c r="AC12" s="128">
         <v>49257</v>
       </c>
-      <c r="AD12" s="181">
+      <c r="AD12" s="128">
         <v>33757</v>
       </c>
-      <c r="AE12" s="181">
+      <c r="AE12" s="128">
         <v>26255</v>
       </c>
-      <c r="AF12" s="181">
+      <c r="AF12" s="128">
         <v>30070</v>
       </c>
-      <c r="AG12" s="181">
+      <c r="AG12" s="128">
         <v>26321</v>
       </c>
-      <c r="AH12" s="181">
+      <c r="AH12" s="128">
         <v>48149</v>
       </c>
-      <c r="AI12" s="181">
+      <c r="AI12" s="128">
         <v>15433</v>
       </c>
-      <c r="AJ12" s="181">
+      <c r="AJ12" s="128">
         <v>16592</v>
       </c>
-      <c r="AK12" s="181">
+      <c r="AK12" s="128">
         <v>44219</v>
       </c>
-      <c r="AL12" s="181">
+      <c r="AL12" s="128">
         <v>54586</v>
       </c>
-      <c r="AM12" s="181">
+      <c r="AM12" s="128">
         <v>13776</v>
       </c>
-      <c r="AN12" s="181">
+      <c r="AN12" s="128">
         <v>15793</v>
       </c>
-      <c r="AO12" s="181">
+      <c r="AO12" s="128">
         <v>34021</v>
       </c>
-      <c r="AP12" s="181">
+      <c r="AP12" s="128">
         <v>28074</v>
       </c>
-      <c r="AQ12" s="181">
+      <c r="AQ12" s="128">
         <v>14868</v>
       </c>
-      <c r="AR12" s="181">
+      <c r="AR12" s="128">
         <v>13827</v>
       </c>
-      <c r="AS12" s="181">
+      <c r="AS12" s="128">
         <v>32267</v>
       </c>
-      <c r="AT12" s="181">
+      <c r="AT12" s="128">
         <v>47376</v>
       </c>
-      <c r="AU12" s="181">
+      <c r="AU12" s="128">
         <v>22508</v>
       </c>
-      <c r="AV12" s="181">
+      <c r="AV12" s="128">
         <v>15609</v>
       </c>
-      <c r="AW12" s="181">
+      <c r="AW12" s="128">
         <v>35288</v>
       </c>
-      <c r="AX12" s="181">
+      <c r="AX12" s="128">
         <v>41271</v>
       </c>
-      <c r="AY12" s="181">
+      <c r="AY12" s="128">
         <v>14161</v>
       </c>
-      <c r="AZ12" s="181">
+      <c r="AZ12" s="128">
         <v>24827</v>
       </c>
-      <c r="BA12" s="181">
+      <c r="BA12" s="128">
         <v>14408</v>
       </c>
-      <c r="BB12" s="181">
+      <c r="BB12" s="128">
         <v>23450</v>
       </c>
-      <c r="BC12" s="181">
+      <c r="BC12" s="128">
         <v>18404</v>
       </c>
-      <c r="BD12" s="181">
+      <c r="BD12" s="128">
         <v>34545</v>
       </c>
-      <c r="BE12" s="181">
+      <c r="BE12" s="128">
         <v>23095</v>
       </c>
-      <c r="BF12" s="181">
+      <c r="BF12" s="128">
         <v>28477</v>
       </c>
-      <c r="BG12" s="181">
+      <c r="BG12" s="128">
         <v>13899</v>
       </c>
-      <c r="BH12" s="181">
+      <c r="BH12" s="128">
         <v>15657</v>
       </c>
-      <c r="BI12" s="181">
+      <c r="BI12" s="128">
         <v>17124</v>
       </c>
-      <c r="BJ12" s="181">
+      <c r="BJ12" s="128">
         <v>31065</v>
       </c>
-      <c r="BK12" s="181">
+      <c r="BK12" s="128">
         <v>16336</v>
       </c>
-      <c r="BL12" s="181">
+      <c r="BL12" s="128">
         <v>14543</v>
       </c>
-      <c r="BM12" s="181">
+      <c r="BM12" s="128">
         <v>17543</v>
       </c>
-      <c r="BN12" s="181">
+      <c r="BN12" s="128">
         <v>31091</v>
       </c>
-      <c r="BO12" s="181">
+      <c r="BO12" s="128">
         <v>28733</v>
       </c>
-      <c r="BP12" s="181">
+      <c r="BP12" s="128">
         <v>23377</v>
       </c>
-      <c r="BQ12" s="181">
+      <c r="BQ12" s="128">
         <v>18566</v>
       </c>
-      <c r="BR12" s="181">
+      <c r="BR12" s="128">
         <v>28876</v>
       </c>
-      <c r="BS12" s="181">
+      <c r="BS12" s="128">
         <v>28654</v>
       </c>
-      <c r="BT12" s="181">
+      <c r="BT12" s="128">
         <v>14347</v>
       </c>
-      <c r="BU12" s="181">
+      <c r="BU12" s="128">
         <v>14453</v>
       </c>
-      <c r="BV12" s="181">
+      <c r="BV12" s="128">
         <v>23523</v>
       </c>
-      <c r="BW12" s="181">
+      <c r="BW12" s="128">
         <v>16311</v>
       </c>
-      <c r="BX12" s="181">
+      <c r="BX12" s="128">
         <v>17188</v>
       </c>
-      <c r="BY12" s="181">
+      <c r="BY12" s="128">
         <v>14264</v>
       </c>
-      <c r="BZ12" s="181">
+      <c r="BZ12" s="128">
         <v>24999</v>
       </c>
-      <c r="CA12" s="181">
+      <c r="CA12" s="128">
         <v>27873</v>
       </c>
-      <c r="CB12" s="181">
+      <c r="CB12" s="128">
         <v>22684</v>
       </c>
-      <c r="CC12" s="181">
+      <c r="CC12" s="128">
         <v>15881</v>
       </c>
-      <c r="CD12" s="181">
+      <c r="CD12" s="128">
         <v>15900</v>
       </c>
-      <c r="CE12" s="181">
+      <c r="CE12" s="128">
         <v>24470</v>
       </c>
-      <c r="CF12" s="181">
+      <c r="CF12" s="128">
         <v>28013</v>
       </c>
-      <c r="CG12" s="181">
+      <c r="CG12" s="128">
         <v>14107</v>
       </c>
-      <c r="CH12" s="181">
+      <c r="CH12" s="128">
         <v>21598</v>
       </c>
-      <c r="CI12" s="181">
+      <c r="CI12" s="128">
         <v>15840</v>
       </c>
-      <c r="CJ12" s="181">
+      <c r="CJ12" s="128">
         <v>14087</v>
       </c>
-      <c r="CK12" s="181">
+      <c r="CK12" s="128">
         <v>24552</v>
       </c>
-      <c r="CL12" s="181">
+      <c r="CL12" s="128">
         <v>28107</v>
       </c>
-      <c r="CM12" s="182">
+      <c r="CM12" s="129">
         <v>14306</v>
       </c>
     </row>
@@ -4954,274 +5192,274 @@
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="179">
+      <c r="B13" s="126">
         <v>2704</v>
       </c>
-      <c r="C13" s="180">
+      <c r="C13" s="127">
         <v>12691</v>
       </c>
-      <c r="D13" s="180">
+      <c r="D13" s="127">
         <v>17105</v>
       </c>
-      <c r="E13" s="180">
+      <c r="E13" s="127">
         <v>3590</v>
       </c>
-      <c r="F13" s="180">
+      <c r="F13" s="127">
         <v>3004</v>
       </c>
-      <c r="G13" s="180">
+      <c r="G13" s="127">
         <v>18618</v>
       </c>
-      <c r="H13" s="180">
+      <c r="H13" s="127">
         <v>17774</v>
       </c>
-      <c r="I13" s="180">
+      <c r="I13" s="127">
         <v>5779</v>
       </c>
-      <c r="J13" s="180">
+      <c r="J13" s="127">
         <v>10436</v>
       </c>
-      <c r="K13" s="180">
+      <c r="K13" s="127">
         <v>4513</v>
       </c>
-      <c r="L13" s="180">
+      <c r="L13" s="127">
         <v>3419</v>
       </c>
-      <c r="M13" s="180">
+      <c r="M13" s="127">
         <v>17985</v>
       </c>
-      <c r="N13" s="180">
+      <c r="N13" s="127">
         <v>10206</v>
       </c>
-      <c r="O13" s="180">
+      <c r="O13" s="127">
         <v>4659</v>
       </c>
-      <c r="P13" s="180">
+      <c r="P13" s="127">
         <v>5454</v>
       </c>
-      <c r="Q13" s="180">
+      <c r="Q13" s="127">
         <v>13161</v>
       </c>
-      <c r="R13" s="180">
+      <c r="R13" s="127">
         <v>9343</v>
       </c>
-      <c r="S13" s="180">
+      <c r="S13" s="127">
         <v>6600</v>
       </c>
-      <c r="T13" s="180">
+      <c r="T13" s="127">
         <v>5545</v>
       </c>
-      <c r="U13" s="180">
+      <c r="U13" s="127">
         <v>12968</v>
       </c>
-      <c r="V13" s="180">
+      <c r="V13" s="127">
         <v>9386</v>
       </c>
-      <c r="W13" s="180">
+      <c r="W13" s="127">
         <v>5065</v>
       </c>
-      <c r="X13" s="180">
+      <c r="X13" s="127">
         <v>3799</v>
       </c>
-      <c r="Y13" s="180">
+      <c r="Y13" s="127">
         <v>14372</v>
       </c>
-      <c r="Z13" s="180">
+      <c r="Z13" s="127">
         <v>12393</v>
       </c>
-      <c r="AA13" s="180">
+      <c r="AA13" s="127">
         <v>4315</v>
       </c>
-      <c r="AB13" s="181">
+      <c r="AB13" s="128">
         <v>4812</v>
       </c>
-      <c r="AC13" s="181">
+      <c r="AC13" s="128">
         <v>7583</v>
       </c>
-      <c r="AD13" s="181">
+      <c r="AD13" s="128">
         <v>14373</v>
       </c>
-      <c r="AE13" s="181">
+      <c r="AE13" s="128">
         <v>4363</v>
       </c>
-      <c r="AF13" s="181">
+      <c r="AF13" s="128">
         <v>5196</v>
       </c>
-      <c r="AG13" s="181">
+      <c r="AG13" s="128">
         <v>10537</v>
       </c>
-      <c r="AH13" s="181">
+      <c r="AH13" s="128">
         <v>7549</v>
       </c>
-      <c r="AI13" s="181">
+      <c r="AI13" s="128">
         <v>6704</v>
       </c>
-      <c r="AJ13" s="181">
+      <c r="AJ13" s="128">
         <v>6645</v>
       </c>
-      <c r="AK13" s="181">
+      <c r="AK13" s="128">
         <v>7349</v>
       </c>
-      <c r="AL13" s="181">
+      <c r="AL13" s="128">
         <v>9396</v>
       </c>
-      <c r="AM13" s="181">
+      <c r="AM13" s="128">
         <v>5632</v>
       </c>
-      <c r="AN13" s="181">
+      <c r="AN13" s="128">
         <v>6484</v>
       </c>
-      <c r="AO13" s="181">
+      <c r="AO13" s="128">
         <v>5917</v>
       </c>
-      <c r="AP13" s="181">
+      <c r="AP13" s="128">
         <v>11955</v>
       </c>
-      <c r="AQ13" s="181">
+      <c r="AQ13" s="128">
         <v>6353</v>
       </c>
-      <c r="AR13" s="181">
+      <c r="AR13" s="128">
         <v>5801</v>
       </c>
-      <c r="AS13" s="181">
+      <c r="AS13" s="128">
         <v>6484</v>
       </c>
-      <c r="AT13" s="181">
+      <c r="AT13" s="128">
         <v>8186</v>
       </c>
-      <c r="AU13" s="181">
+      <c r="AU13" s="128">
         <v>3636</v>
       </c>
-      <c r="AV13" s="181">
+      <c r="AV13" s="128">
         <v>6807</v>
       </c>
-      <c r="AW13" s="181">
+      <c r="AW13" s="128">
         <v>5842</v>
       </c>
-      <c r="AX13" s="181">
+      <c r="AX13" s="128">
         <v>7217</v>
       </c>
-      <c r="AY13" s="181">
+      <c r="AY13" s="128">
         <v>5964</v>
       </c>
-      <c r="AZ13" s="181">
+      <c r="AZ13" s="128">
         <v>4346</v>
       </c>
-      <c r="BA13" s="181">
+      <c r="BA13" s="128">
         <v>6159</v>
       </c>
-      <c r="BB13" s="181">
+      <c r="BB13" s="128">
         <v>3961</v>
       </c>
-      <c r="BC13" s="181">
+      <c r="BC13" s="128">
         <v>7367</v>
       </c>
-      <c r="BD13" s="181">
+      <c r="BD13" s="128">
         <v>5741</v>
       </c>
-      <c r="BE13" s="181">
+      <c r="BE13" s="128">
         <v>3847</v>
       </c>
-      <c r="BF13" s="181">
+      <c r="BF13" s="128">
         <v>5196</v>
       </c>
-      <c r="BG13" s="181">
+      <c r="BG13" s="128">
         <v>5851</v>
       </c>
-      <c r="BH13" s="181">
+      <c r="BH13" s="128">
         <v>6846</v>
       </c>
-      <c r="BI13" s="181">
+      <c r="BI13" s="128">
         <v>7311</v>
       </c>
-      <c r="BJ13" s="181">
+      <c r="BJ13" s="128">
         <v>4907</v>
       </c>
-      <c r="BK13" s="181">
+      <c r="BK13" s="128">
         <v>7491</v>
       </c>
-      <c r="BL13" s="181">
+      <c r="BL13" s="128">
         <v>6281</v>
       </c>
-      <c r="BM13" s="181">
+      <c r="BM13" s="128">
         <v>7203</v>
       </c>
-      <c r="BN13" s="181">
+      <c r="BN13" s="128">
         <v>5167</v>
       </c>
-      <c r="BO13" s="181">
+      <c r="BO13" s="128">
         <v>5287</v>
       </c>
-      <c r="BP13" s="181">
+      <c r="BP13" s="128">
         <v>3937</v>
       </c>
-      <c r="BQ13" s="181">
+      <c r="BQ13" s="128">
         <v>7905</v>
       </c>
-      <c r="BR13" s="181">
+      <c r="BR13" s="128">
         <v>4756</v>
       </c>
-      <c r="BS13" s="181">
+      <c r="BS13" s="128">
         <v>5258</v>
       </c>
-      <c r="BT13" s="181">
+      <c r="BT13" s="128">
         <v>6108</v>
       </c>
-      <c r="BU13" s="181">
+      <c r="BU13" s="128">
         <v>6358</v>
       </c>
-      <c r="BV13" s="181">
+      <c r="BV13" s="128">
         <v>3987</v>
       </c>
-      <c r="BW13" s="181">
+      <c r="BW13" s="128">
         <v>7467</v>
       </c>
-      <c r="BX13" s="181">
+      <c r="BX13" s="128">
         <v>6880</v>
       </c>
-      <c r="BY13" s="181">
+      <c r="BY13" s="128">
         <v>6192</v>
       </c>
-      <c r="BZ13" s="181">
+      <c r="BZ13" s="128">
         <v>4399</v>
       </c>
-      <c r="CA13" s="181">
+      <c r="CA13" s="128">
         <v>4953</v>
       </c>
-      <c r="CB13" s="181">
+      <c r="CB13" s="128">
         <v>3694</v>
       </c>
-      <c r="CC13" s="181">
+      <c r="CC13" s="128">
         <v>7091</v>
       </c>
-      <c r="CD13" s="181">
+      <c r="CD13" s="128">
         <v>7106</v>
       </c>
-      <c r="CE13" s="181">
+      <c r="CE13" s="128">
         <v>4205</v>
       </c>
-      <c r="CF13" s="181">
+      <c r="CF13" s="128">
         <v>5018</v>
       </c>
-      <c r="CG13" s="181">
+      <c r="CG13" s="128">
         <v>5914</v>
       </c>
-      <c r="CH13" s="181">
+      <c r="CH13" s="128">
         <v>3773</v>
       </c>
-      <c r="CI13" s="181">
+      <c r="CI13" s="128">
         <v>7046</v>
       </c>
-      <c r="CJ13" s="181">
+      <c r="CJ13" s="128">
         <v>5896</v>
       </c>
-      <c r="CK13" s="181">
+      <c r="CK13" s="128">
         <v>4241</v>
       </c>
-      <c r="CL13" s="181">
+      <c r="CL13" s="128">
         <v>5062</v>
       </c>
-      <c r="CM13" s="182">
+      <c r="CM13" s="129">
         <v>6073</v>
       </c>
     </row>
@@ -5229,274 +5467,274 @@
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="179">
+      <c r="B14" s="126">
         <v>2048</v>
       </c>
-      <c r="C14" s="180">
+      <c r="C14" s="127">
         <v>6006</v>
       </c>
-      <c r="D14" s="180">
+      <c r="D14" s="127">
         <v>7111</v>
       </c>
-      <c r="E14" s="180">
+      <c r="E14" s="127">
         <v>1164</v>
       </c>
-      <c r="F14" s="180">
+      <c r="F14" s="127">
         <v>2446</v>
       </c>
-      <c r="G14" s="180">
+      <c r="G14" s="127">
         <v>9164</v>
       </c>
-      <c r="H14" s="180">
+      <c r="H14" s="127">
         <v>7349</v>
       </c>
-      <c r="I14" s="180">
+      <c r="I14" s="127">
         <v>1817</v>
       </c>
-      <c r="J14" s="180">
+      <c r="J14" s="127">
         <v>8496</v>
       </c>
-      <c r="K14" s="180">
+      <c r="K14" s="127">
         <v>1721</v>
       </c>
-      <c r="L14" s="180">
+      <c r="L14" s="127">
         <v>2772</v>
       </c>
-      <c r="M14" s="180">
+      <c r="M14" s="127">
         <v>8947</v>
       </c>
-      <c r="N14" s="180">
+      <c r="N14" s="127">
         <v>8275</v>
       </c>
-      <c r="O14" s="180">
+      <c r="O14" s="127">
         <v>1778</v>
       </c>
-      <c r="P14" s="180">
+      <c r="P14" s="127">
         <v>2265</v>
       </c>
-      <c r="Q14" s="180">
+      <c r="Q14" s="127">
         <v>4238</v>
       </c>
-      <c r="R14" s="180">
+      <c r="R14" s="127">
         <v>7525</v>
       </c>
-      <c r="S14" s="180">
+      <c r="S14" s="127">
         <v>3245</v>
       </c>
-      <c r="T14" s="180">
+      <c r="T14" s="127">
         <v>2311</v>
       </c>
-      <c r="U14" s="180">
+      <c r="U14" s="127">
         <v>4162</v>
       </c>
-      <c r="V14" s="180">
+      <c r="V14" s="127">
         <v>7523</v>
       </c>
-      <c r="W14" s="180">
+      <c r="W14" s="127">
         <v>1931</v>
       </c>
-      <c r="X14" s="180">
+      <c r="X14" s="127">
         <v>3080</v>
       </c>
-      <c r="Y14" s="180">
+      <c r="Y14" s="127">
         <v>7002</v>
       </c>
-      <c r="Z14" s="180">
+      <c r="Z14" s="127">
         <v>3882</v>
       </c>
-      <c r="AA14" s="180">
+      <c r="AA14" s="127">
         <v>3503</v>
       </c>
-      <c r="AB14" s="181">
+      <c r="AB14" s="128">
         <v>1846</v>
       </c>
-      <c r="AC14" s="181">
+      <c r="AC14" s="128">
         <v>6180</v>
       </c>
-      <c r="AD14" s="181">
+      <c r="AD14" s="128">
         <v>7075</v>
       </c>
-      <c r="AE14" s="181">
+      <c r="AE14" s="128">
         <v>3537</v>
       </c>
-      <c r="AF14" s="181">
+      <c r="AF14" s="128">
         <v>1984</v>
       </c>
-      <c r="AG14" s="181">
+      <c r="AG14" s="128">
         <v>4381</v>
       </c>
-      <c r="AH14" s="181">
+      <c r="AH14" s="128">
         <v>6070</v>
       </c>
-      <c r="AI14" s="181">
+      <c r="AI14" s="128">
         <v>3332</v>
       </c>
-      <c r="AJ14" s="181">
+      <c r="AJ14" s="128">
         <v>2725</v>
       </c>
-      <c r="AK14" s="181">
+      <c r="AK14" s="128">
         <v>5958</v>
       </c>
-      <c r="AL14" s="181">
+      <c r="AL14" s="128">
         <v>3559</v>
       </c>
-      <c r="AM14" s="181">
+      <c r="AM14" s="128">
         <v>2372</v>
       </c>
-      <c r="AN14" s="181">
+      <c r="AN14" s="128">
         <v>2081</v>
       </c>
-      <c r="AO14" s="181">
+      <c r="AO14" s="128">
         <v>4592</v>
       </c>
-      <c r="AP14" s="181">
+      <c r="AP14" s="128">
         <v>5856</v>
       </c>
-      <c r="AQ14" s="181">
+      <c r="AQ14" s="128">
         <v>2548</v>
       </c>
-      <c r="AR14" s="181">
+      <c r="AR14" s="128">
         <v>1893</v>
       </c>
-      <c r="AS14" s="181">
+      <c r="AS14" s="128">
         <v>4743</v>
       </c>
-      <c r="AT14" s="181">
+      <c r="AT14" s="128">
         <v>3121</v>
       </c>
-      <c r="AU14" s="181">
+      <c r="AU14" s="128">
         <v>2994</v>
       </c>
-      <c r="AV14" s="181">
+      <c r="AV14" s="128">
         <v>3400</v>
       </c>
-      <c r="AW14" s="181">
+      <c r="AW14" s="128">
         <v>4736</v>
       </c>
-      <c r="AX14" s="181">
+      <c r="AX14" s="128">
         <v>2767</v>
       </c>
-      <c r="AY14" s="181">
+      <c r="AY14" s="128">
         <v>2472</v>
       </c>
-      <c r="AZ14" s="181">
+      <c r="AZ14" s="128">
         <v>3511</v>
       </c>
-      <c r="BA14" s="181">
+      <c r="BA14" s="128">
         <v>2533</v>
       </c>
-      <c r="BB14" s="181">
+      <c r="BB14" s="128">
         <v>3175</v>
       </c>
-      <c r="BC14" s="181">
+      <c r="BC14" s="128">
         <v>3063</v>
       </c>
-      <c r="BD14" s="181">
+      <c r="BD14" s="128">
         <v>4655</v>
       </c>
-      <c r="BE14" s="181">
+      <c r="BE14" s="128">
         <v>3106</v>
       </c>
-      <c r="BF14" s="181">
+      <c r="BF14" s="128">
         <v>1972</v>
       </c>
-      <c r="BG14" s="181">
+      <c r="BG14" s="128">
         <v>1904</v>
       </c>
-      <c r="BH14" s="181">
+      <c r="BH14" s="128">
         <v>3413</v>
       </c>
-      <c r="BI14" s="181">
+      <c r="BI14" s="128">
         <v>2295</v>
       </c>
-      <c r="BJ14" s="181">
+      <c r="BJ14" s="128">
         <v>3944</v>
       </c>
-      <c r="BK14" s="181">
+      <c r="BK14" s="128">
         <v>3634</v>
       </c>
-      <c r="BL14" s="181">
+      <c r="BL14" s="128">
         <v>2572</v>
       </c>
-      <c r="BM14" s="181">
+      <c r="BM14" s="128">
         <v>2311</v>
       </c>
-      <c r="BN14" s="181">
+      <c r="BN14" s="128">
         <v>4189</v>
       </c>
-      <c r="BO14" s="181">
+      <c r="BO14" s="128">
         <v>1997</v>
       </c>
-      <c r="BP14" s="181">
+      <c r="BP14" s="128">
         <v>3159</v>
       </c>
-      <c r="BQ14" s="181">
+      <c r="BQ14" s="128">
         <v>3891</v>
       </c>
-      <c r="BR14" s="181">
+      <c r="BR14" s="128">
         <v>3879</v>
       </c>
-      <c r="BS14" s="181">
+      <c r="BS14" s="128">
         <v>1989</v>
       </c>
-      <c r="BT14" s="181">
+      <c r="BT14" s="128">
         <v>2518</v>
       </c>
-      <c r="BU14" s="181">
+      <c r="BU14" s="128">
         <v>2016</v>
       </c>
-      <c r="BV14" s="181">
+      <c r="BV14" s="128">
         <v>3191</v>
       </c>
-      <c r="BW14" s="181">
+      <c r="BW14" s="128">
         <v>3625</v>
       </c>
-      <c r="BX14" s="181">
+      <c r="BX14" s="128">
         <v>2861</v>
       </c>
-      <c r="BY14" s="181">
+      <c r="BY14" s="128">
         <v>1977</v>
       </c>
-      <c r="BZ14" s="181">
+      <c r="BZ14" s="128">
         <v>3545</v>
       </c>
-      <c r="CA14" s="181">
+      <c r="CA14" s="128">
         <v>1910</v>
       </c>
-      <c r="CB14" s="181">
+      <c r="CB14" s="128">
         <v>3024</v>
       </c>
-      <c r="CC14" s="181">
+      <c r="CC14" s="128">
         <v>3488</v>
       </c>
-      <c r="CD14" s="181">
+      <c r="CD14" s="128">
         <v>3493</v>
       </c>
-      <c r="CE14" s="181">
+      <c r="CE14" s="128">
         <v>3437</v>
       </c>
-      <c r="CF14" s="181">
+      <c r="CF14" s="128">
         <v>1926</v>
       </c>
-      <c r="CG14" s="181">
+      <c r="CG14" s="128">
         <v>2459</v>
       </c>
-      <c r="CH14" s="181">
+      <c r="CH14" s="128">
         <v>2975</v>
       </c>
-      <c r="CI14" s="181">
+      <c r="CI14" s="128">
         <v>3474</v>
       </c>
-      <c r="CJ14" s="181">
+      <c r="CJ14" s="128">
         <v>2454</v>
       </c>
-      <c r="CK14" s="181">
+      <c r="CK14" s="128">
         <v>3455</v>
       </c>
-      <c r="CL14" s="181">
+      <c r="CL14" s="128">
         <v>1936</v>
       </c>
-      <c r="CM14" s="182">
+      <c r="CM14" s="129">
         <v>2507</v>
       </c>
     </row>
@@ -5504,274 +5742,274 @@
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="184">
+      <c r="B15" s="131">
         <v>21136</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="132">
         <v>97285</v>
       </c>
-      <c r="D15" s="185">
+      <c r="D15" s="132">
         <v>87875</v>
       </c>
-      <c r="E15" s="185">
+      <c r="E15" s="132">
         <v>17521</v>
       </c>
-      <c r="F15" s="185">
+      <c r="F15" s="132">
         <v>30617</v>
       </c>
-      <c r="G15" s="185">
+      <c r="G15" s="132">
         <v>85359</v>
       </c>
-      <c r="H15" s="185">
+      <c r="H15" s="132">
         <v>92489</v>
       </c>
-      <c r="I15" s="185">
+      <c r="I15" s="132">
         <v>27765</v>
       </c>
-      <c r="J15" s="185">
+      <c r="J15" s="132">
         <v>93107</v>
       </c>
-      <c r="K15" s="185">
+      <c r="K15" s="132">
         <v>37739</v>
       </c>
-      <c r="L15" s="185">
+      <c r="L15" s="132">
         <v>33260</v>
       </c>
-      <c r="M15" s="185">
+      <c r="M15" s="132">
         <v>84955</v>
       </c>
-      <c r="N15" s="185">
+      <c r="N15" s="132">
         <v>91669</v>
       </c>
-      <c r="O15" s="185">
+      <c r="O15" s="132">
         <v>38795</v>
       </c>
-      <c r="P15" s="185">
+      <c r="P15" s="132">
         <v>27810</v>
       </c>
-      <c r="Q15" s="185">
+      <c r="Q15" s="132">
         <v>63145</v>
       </c>
-      <c r="R15" s="185">
+      <c r="R15" s="132">
         <v>91331</v>
       </c>
-      <c r="S15" s="185">
+      <c r="S15" s="132">
         <v>29965</v>
       </c>
-      <c r="T15" s="185">
+      <c r="T15" s="132">
         <v>28174</v>
       </c>
-      <c r="U15" s="185">
+      <c r="U15" s="132">
         <v>62517</v>
       </c>
-      <c r="V15" s="185">
+      <c r="V15" s="132">
         <v>83454</v>
       </c>
-      <c r="W15" s="185">
+      <c r="W15" s="132">
         <v>42360</v>
       </c>
-      <c r="X15" s="185">
+      <c r="X15" s="132">
         <v>36955</v>
       </c>
-      <c r="Y15" s="185">
+      <c r="Y15" s="132">
         <v>65046</v>
       </c>
-      <c r="Z15" s="185">
+      <c r="Z15" s="132">
         <v>57774</v>
       </c>
-      <c r="AA15" s="185">
+      <c r="AA15" s="132">
         <v>38811</v>
       </c>
-      <c r="AB15" s="186">
+      <c r="AB15" s="133">
         <v>39687</v>
       </c>
-      <c r="AC15" s="186">
+      <c r="AC15" s="133">
         <v>75209</v>
       </c>
-      <c r="AD15" s="186">
+      <c r="AD15" s="133">
         <v>65899</v>
       </c>
-      <c r="AE15" s="186">
+      <c r="AE15" s="133">
         <v>39188</v>
       </c>
-      <c r="AF15" s="186">
+      <c r="AF15" s="133">
         <v>43456</v>
       </c>
-      <c r="AG15" s="186">
+      <c r="AG15" s="133">
         <v>54132</v>
       </c>
-      <c r="AH15" s="186">
+      <c r="AH15" s="133">
         <v>73722</v>
       </c>
-      <c r="AI15" s="186">
+      <c r="AI15" s="133">
         <v>30471</v>
       </c>
-      <c r="AJ15" s="186">
+      <c r="AJ15" s="133">
         <v>34052</v>
       </c>
-      <c r="AK15" s="186">
+      <c r="AK15" s="133">
         <v>66002</v>
       </c>
-      <c r="AL15" s="186">
+      <c r="AL15" s="133">
         <v>78750</v>
       </c>
-      <c r="AM15" s="186">
+      <c r="AM15" s="133">
         <v>28618</v>
       </c>
-      <c r="AN15" s="186">
+      <c r="AN15" s="133">
         <v>31259</v>
       </c>
-      <c r="AO15" s="186">
+      <c r="AO15" s="133">
         <v>53341</v>
       </c>
-      <c r="AP15" s="186">
+      <c r="AP15" s="133">
         <v>54751</v>
       </c>
-      <c r="AQ15" s="186">
+      <c r="AQ15" s="133">
         <v>31165</v>
       </c>
-      <c r="AR15" s="186">
+      <c r="AR15" s="133">
         <v>27658</v>
       </c>
-      <c r="AS15" s="186">
+      <c r="AS15" s="133">
         <v>50183</v>
       </c>
-      <c r="AT15" s="186">
+      <c r="AT15" s="133">
         <v>68460</v>
       </c>
-      <c r="AU15" s="186">
+      <c r="AU15" s="133">
         <v>34876</v>
       </c>
-      <c r="AV15" s="186">
+      <c r="AV15" s="133">
         <v>30906</v>
       </c>
-      <c r="AW15" s="186">
+      <c r="AW15" s="133">
         <v>52607</v>
       </c>
-      <c r="AX15" s="186">
+      <c r="AX15" s="133">
         <v>59842</v>
       </c>
-      <c r="AY15" s="186">
+      <c r="AY15" s="133">
         <v>29674</v>
       </c>
-      <c r="AZ15" s="186">
+      <c r="AZ15" s="133">
         <v>37592</v>
       </c>
-      <c r="BA15" s="186">
+      <c r="BA15" s="133">
         <v>30322</v>
       </c>
-      <c r="BB15" s="186">
+      <c r="BB15" s="133">
         <v>36628</v>
       </c>
-      <c r="BC15" s="186">
+      <c r="BC15" s="133">
         <v>37850</v>
       </c>
-      <c r="BD15" s="186">
+      <c r="BD15" s="133">
         <v>51564</v>
       </c>
-      <c r="BE15" s="186">
+      <c r="BE15" s="133">
         <v>35977</v>
       </c>
-      <c r="BF15" s="186">
+      <c r="BF15" s="133">
         <v>41669</v>
       </c>
-      <c r="BG15" s="186">
+      <c r="BG15" s="133">
         <v>27825</v>
       </c>
-      <c r="BH15" s="186">
+      <c r="BH15" s="133">
         <v>31024</v>
       </c>
-      <c r="BI15" s="186">
+      <c r="BI15" s="133">
         <v>34289</v>
       </c>
-      <c r="BJ15" s="186">
+      <c r="BJ15" s="133">
         <v>47656</v>
       </c>
-      <c r="BK15" s="186">
+      <c r="BK15" s="133">
         <v>32889</v>
       </c>
-      <c r="BL15" s="186">
+      <c r="BL15" s="133">
         <v>30704</v>
       </c>
-      <c r="BM15" s="186">
+      <c r="BM15" s="133">
         <v>34723</v>
       </c>
-      <c r="BN15" s="186">
+      <c r="BN15" s="133">
         <v>46407</v>
       </c>
-      <c r="BO15" s="186">
+      <c r="BO15" s="133">
         <v>42107</v>
       </c>
-      <c r="BP15" s="186">
+      <c r="BP15" s="133">
         <v>36491</v>
       </c>
-      <c r="BQ15" s="186">
+      <c r="BQ15" s="133">
         <v>36244</v>
       </c>
-      <c r="BR15" s="186">
+      <c r="BR15" s="133">
         <v>43040</v>
       </c>
-      <c r="BS15" s="186">
+      <c r="BS15" s="133">
         <v>41971</v>
       </c>
-      <c r="BT15" s="186">
+      <c r="BT15" s="133">
         <v>30156</v>
       </c>
-      <c r="BU15" s="186">
+      <c r="BU15" s="133">
         <v>29304</v>
       </c>
-      <c r="BV15" s="186">
+      <c r="BV15" s="133">
         <v>36769</v>
       </c>
-      <c r="BW15" s="186">
+      <c r="BW15" s="133">
         <v>32817</v>
       </c>
-      <c r="BX15" s="186">
+      <c r="BX15" s="133">
         <v>35349</v>
       </c>
-      <c r="BY15" s="186">
+      <c r="BY15" s="133">
         <v>28806</v>
       </c>
-      <c r="BZ15" s="186">
+      <c r="BZ15" s="133">
         <v>37892</v>
       </c>
-      <c r="CA15" s="186">
+      <c r="CA15" s="133">
         <v>40597</v>
       </c>
-      <c r="CB15" s="186">
+      <c r="CB15" s="133">
         <v>35194</v>
       </c>
-      <c r="CC15" s="186">
+      <c r="CC15" s="133">
         <v>31681</v>
       </c>
-      <c r="CD15" s="186">
+      <c r="CD15" s="133">
         <v>31727</v>
       </c>
-      <c r="CE15" s="186">
+      <c r="CE15" s="133">
         <v>36922</v>
       </c>
-      <c r="CF15" s="186">
+      <c r="CF15" s="133">
         <v>40857</v>
       </c>
-      <c r="CG15" s="186">
+      <c r="CG15" s="133">
         <v>29522</v>
       </c>
-      <c r="CH15" s="186">
+      <c r="CH15" s="133">
         <v>33989</v>
       </c>
-      <c r="CI15" s="186">
+      <c r="CI15" s="133">
         <v>31559</v>
       </c>
-      <c r="CJ15" s="186">
+      <c r="CJ15" s="133">
         <v>29468</v>
       </c>
-      <c r="CK15" s="186">
+      <c r="CK15" s="133">
         <v>37083</v>
       </c>
-      <c r="CL15" s="186">
+      <c r="CL15" s="133">
         <v>41032</v>
       </c>
-      <c r="CM15" s="187">
+      <c r="CM15" s="134">
         <v>30047</v>
       </c>
     </row>
@@ -5788,244 +6026,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11">
-        <f t="array" ref="C3">MAX((IF(Номера_варіантів=C1,COLUMN(Номера_варіантів))))</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="str">
-        <f t="array" ref="B6:B18">INDEX(Варіанти,A6:A18,1)</f>
-        <v>Центр витрат (ЦВ)</v>
-      </c>
-      <c r="C6" s="14" t="str">
-        <f>INDEX(Варіанти,A6:A18,2)</f>
-        <v>Сума витрат за ЦВ, тис. Грн</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <f>A6+1</f>
-        <v>2</v>
-      </c>
-      <c r="B7" s="15" t="str">
-        <v>A. Приймання та ідентифікація категорії звернень</v>
-      </c>
-      <c r="C7" s="67">
-        <f>INDEX(Варіанти,A7,$C$3)</f>
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <f t="shared" ref="A8:A18" si="0">A7+1</f>
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="str">
-        <v>В. Адміністративні витрати</v>
-      </c>
-      <c r="C8" s="67">
-        <f>INDEX(Варіанти,A8,$C$3)</f>
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B9" s="15" t="str">
-        <v>C. Інженерна служба</v>
-      </c>
-      <c r="C9" s="67">
-        <f>INDEX(Варіанти,A9,$C$3)</f>
-        <v>18333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B10" s="15" t="str">
-        <v>D. Витрати на субпідрядні роботи</v>
-      </c>
-      <c r="C10" s="67">
-        <f>INDEX(Варіанти,A10,$C$3)</f>
-        <v>7222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B11" s="16" t="str">
-        <v>Разом витрат у періоді</v>
-      </c>
-      <c r="C11" s="67">
-        <f>INDEX(Варіанти,A11,$C$3)</f>
-        <v>30777</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B12" s="14" t="str">
-        <v>Сервісна послуга</v>
-      </c>
-      <c r="C12" s="68" t="str">
-        <f>INDEX(Варіанти,A12:A24,2)</f>
-        <v>Дохід (виручка) від надання сервісних послуг СП_1-5, тис. грн</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="15" t="str">
-        <v>СП_1_Дистанційне консультування клієнта</v>
-      </c>
-      <c r="C13" s="67">
-        <f t="shared" ref="C13:C18" si="1">INDEX(Варіанти,A13,$C$3)</f>
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B14" s="15" t="str">
-        <v>СП_2_Консультування та відправлення замовнику запасних частин</v>
-      </c>
-      <c r="C14" s="67">
-        <f t="shared" si="1"/>
-        <v>4202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B15" s="15" t="str">
-        <v>СП_3_Послуги інженера СЦ на території замовника</v>
-      </c>
-      <c r="C15" s="67">
-        <f t="shared" si="1"/>
-        <v>24058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B16" s="15" t="str">
-        <v>СП_4_Послуги інженера третьої сторони на території замовника</v>
-      </c>
-      <c r="C16" s="67">
-        <f t="shared" si="1"/>
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="15" t="str">
-        <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
-      </c>
-      <c r="C17" s="67">
-        <f t="shared" si="1"/>
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B18" s="16" t="str">
-        <v>Разом доходів у періоді</v>
-      </c>
-      <c r="C18" s="67">
-        <f t="shared" si="1"/>
-        <v>36955</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;"Times New Roman,Курсив"&amp;14&amp;K000000Таблиця 1</oddHeader>
-  </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="C12" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
@@ -6033,7 +6033,7 @@
   </sheetPr>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -6051,23 +6051,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="143" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="138" t="s">
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="152" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
@@ -6080,11 +6080,11 @@
       <c r="F2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="139"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="1:7" ht="71" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="38" t="s">
         <v>18</v>
       </c>
@@ -6097,13 +6097,13 @@
       <c r="F3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="140"/>
+      <c r="G3" s="154"/>
     </row>
     <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="147"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="35">
         <v>0.3</v>
       </c>
@@ -6122,10 +6122,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="125"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="29">
         <v>0.2</v>
       </c>
@@ -6144,10 +6144,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="162" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="125"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="29">
         <v>0.5</v>
       </c>
@@ -6166,10 +6166,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="125"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="30" t="s">
         <v>24</v>
       </c>
@@ -6188,10 +6188,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="125"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="29" t="s">
         <v>24</v>
       </c>
@@ -6210,10 +6210,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="125"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="30" t="s">
         <v>24</v>
       </c>
@@ -6232,10 +6232,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="127"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="31" t="s">
         <v>24</v>
       </c>
@@ -6254,7 +6254,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="166" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
@@ -6282,7 +6282,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="129"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="34" t="s">
         <v>31</v>
       </c>
@@ -6309,15 +6309,15 @@
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="59" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136" t="s">
+      <c r="A15" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="59" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
@@ -6329,7 +6329,7 @@
       <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" s="9" customFormat="1" ht="339" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="141" t="str">
+      <c r="A17" s="155" t="str">
         <f xml:space="preserve"> A21 &amp; "
 " &amp; A22 &amp; "
 " &amp; A23 &amp; "
@@ -6345,12 +6345,12 @@
 1778 х 30% + 7222 х 55% = 4505,5 тис. грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:
 18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B17" s="141"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
     </row>
     <row r="18" spans="1:7" s="9" customFormat="1" ht="217" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50"/>
@@ -6371,18 +6371,18 @@
       <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="137" t="str">
+      <c r="A21" s="151" t="str">
         <f xml:space="preserve"> A4 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -6395,15 +6395,15 @@
   )</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн.</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
     </row>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="137" t="str">
+      <c r="A22" s="151" t="str">
         <f t="shared" ref="A22:A27" si="1" xml:space="preserve"> A5 &amp; ":
 " &amp;
   SUBSTITUTE(
@@ -6417,77 +6417,77 @@
         <v>ВД_2. Ідентифікація категорії звернення та проблеми:
 3444 х 20% + 7222 х 20% = 2133,2 тис. грн.</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="137" t="str">
+      <c r="A23" s="151" t="str">
         <f t="shared" si="1"/>
         <v>ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):
 3444 х 50% + 1778 х 20% = 2077,6 тис. грн.</v>
       </c>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="137" t="str">
+      <c r="A24" s="151" t="str">
         <f t="shared" si="1"/>
         <v>ВД_4. Підготовка та відправлення замовнику запасних частин:
 1778 х 10% + 18333 х 15% = 2927,75 тис. грн.</v>
       </c>
-      <c r="B24" s="137"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="137"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="137"/>
-      <c r="G24" s="137"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
     </row>
     <row r="25" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="137" t="str">
+      <c r="A25" s="151" t="str">
         <f t="shared" si="1"/>
         <v>ВД_5. Виконання робіт інженерами СЦ:
 1778 х 40% + 18333 х 65% = 12627,65 тис. грн.</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="137" t="str">
+      <c r="A26" s="151" t="str">
         <f t="shared" si="1"/>
         <v>ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):
 1778 х 30% + 7222 х 55% = 4505,5 тис. грн.</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
     </row>
     <row r="27" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="137" t="str">
+      <c r="A27" s="151" t="str">
         <f t="shared" si="1"/>
         <v>ВД_7. Вирішення нестандартних проблем клієнтів:
 18333 х 20% + 7222 х 5% = 4027,7 тис. грн.</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="43" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
@@ -6819,6 +6819,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A25:G25"/>
@@ -6835,11 +6840,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6877,26 +6877,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="172" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="170" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="148" t="s">
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="168" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="151"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="171"/>
       <c r="C2" s="41" t="str">
         <f>Таблиця_1!$B13</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -6917,7 +6917,7 @@
         <f>Таблиця_1!$B17</f>
         <v>СП_5_Первинне встановлення корпоративної серверної системи</v>
       </c>
-      <c r="H2" s="149"/>
+      <c r="H2" s="169"/>
     </row>
     <row r="3" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="str">
@@ -7170,27 +7170,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="159" t="s">
+      <c r="C1" s="179" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="163"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="183"/>
     </row>
     <row r="2" spans="1:14" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="160"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="180"/>
       <c r="D2" s="91" t="str">
         <f>Таблиця_3!C2</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -7504,16 +7504,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="158" t="s">
+      <c r="A13" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
       <c r="N13" s="51" t="str">
         <f>B7 &amp; " тис. грн. / " &amp; Таблиця_3!H7 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C7,1) &amp; " грн."</f>
         <v>12627,65 тис. грн. / 40000 x 1000 = 315,7 грн.</v>
@@ -7526,7 +7526,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="397" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="157" t="str">
+      <c r="A15" s="177" t="str">
         <f xml:space="preserve">    A3 &amp; ":
  " &amp; N9 &amp; "
 " &amp; A4 &amp; ":
@@ -7543,13 +7543,13 @@
  " &amp; N15</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_ 2477,6 тис. грн. / 78100 x 1000 = 31,7 грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_ 2133,2 тис. грн. / 51975 x 1000 = 41 грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_ 2077,6 тис. грн. / 31600 x 1000 = 65,7 грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_ 2927,75 тис. грн. / 3000 x 1000 = 975,9 грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_ 12627,65 тис. грн. / 40000 x 1000 = 315,7 грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_ 4505,5 тис. грн. / 8500 x 1000 = 530,1 грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_ 4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
       <c r="N15" s="51" t="str">
         <f>B9 &amp; " тис. грн. / " &amp; Таблиця_3!H9 &amp; " x 1000 = " &amp; ROUND(Таблиця_4!C9,1) &amp; " грн."</f>
         <v>4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
@@ -7557,16 +7557,16 @@
     </row>
     <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:19" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
       <c r="O17" s="51" t="str">
         <f>D2</f>
         <v>СП_1_Дистанційне консультування клієнта</v>
@@ -7617,7 +7617,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="157" t="str">
+      <c r="A19" s="177" t="str">
         <f xml:space="preserve">   LEFT(O27, LEN(O27)-2) &amp; ";
 " &amp; LEFT(P27, LEN(P27)-2) &amp; ";
 " &amp; LEFT(Q27, LEN(Q27)-2) &amp; ";
@@ -7642,13 +7642,13 @@
      ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг),
      ВД_7. Вирішення нестандартних проблем клієнтів</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
       <c r="O19" s="51" t="str">
         <f t="shared" ref="O19:O23" si="3">IF(ISNUMBER(D4), "     " &amp; $A4 &amp; ",
 ", "")</f>
@@ -7676,14 +7676,14 @@
       </c>
     </row>
     <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="157"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
+      <c r="A20" s="177"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
       <c r="O20" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7709,14 +7709,14 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="62" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="157"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
       <c r="O21" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7740,14 +7740,14 @@
       </c>
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="157"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
       <c r="O22" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7772,14 +7772,14 @@
       </c>
     </row>
     <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
       <c r="O23" s="51" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7804,14 +7804,14 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="409" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
+      <c r="A24" s="177"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
       <c r="O24" s="51" t="str">
         <f t="shared" ref="O24" si="4">IF(ISNUMBER(D9), "     " &amp; $A9 &amp; ",
 ", "")</f>
@@ -7944,10 +7944,10 @@
       <c r="D1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="186" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="166"/>
+      <c r="F1" s="186"/>
       <c r="G1" s="105" t="s">
         <v>69</v>
       </c>
@@ -8125,19 +8125,19 @@
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:11" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="141" t="str">
+      <c r="A11" s="155" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K11
   &amp; "
@@ -8154,96 +8154,96 @@
 " &amp; K15</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1650,1 тис. грн. / 19800 x 1000 = 83,3 грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_18506,3 тис. грн. / 38000 x 1000 = 487 грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_5065,5 тис. грн. / 8000 x 1000 = 633,2 грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
       <c r="K11" s="53" t="str">
         <f xml:space="preserve"> ROUND(C2,1) &amp; " тис. грн. / " &amp; F2 &amp; " x 1000 = " &amp; ROUND(G2,1) &amp; " грн."</f>
         <v>1650,1 тис. грн. / 19800 x 1000 = 83,3 грн.</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
+      <c r="A12" s="155"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
       <c r="K12" s="53" t="str">
         <f t="shared" ref="K12:K15" si="3" xml:space="preserve"> ROUND(C3,1) &amp; " тис. грн. / " &amp; F3 &amp; " x 1000 = " &amp; ROUND(G3,1) &amp; " грн."</f>
         <v>3501,6 тис. грн. / 3000 x 1000 = 1167,2 грн.</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
       <c r="K13" s="53" t="str">
         <f t="shared" si="3"/>
         <v>18506,3 тис. грн. / 38000 x 1000 = 487 грн.</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="141"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
       <c r="K14" s="53" t="str">
         <f t="shared" si="3"/>
         <v>5065,5 тис. грн. / 8000 x 1000 = 633,2 грн.</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="141"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
       <c r="K15" s="53" t="str">
         <f t="shared" si="3"/>
         <v>2053,4 тис. грн. / 2500 x 1000 = 821,3 грн.</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="226" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
       <c r="K16" s="53"/>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:11" ht="25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167" t="s">
+      <c r="A19" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="157" t="str">
+      <c r="A22" s="177" t="str">
         <f xml:space="preserve">  A2 &amp; ":
 " &amp; K22
   &amp; "
@@ -8263,105 +8263,105 @@
 " &amp; K27</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_1815 - 1650,1 = 164,9 тис. грн._x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:_x000D_4202 - 3501,6 = 700,4 тис. грн._x000D__x000D_СП_3_Послуги інженера СЦ на території замовника:_x000D_24058 - 18506,3 = 5551,7 тис. грн._x000D__x000D_СП_4_Послуги інженера третьої сторони на території замовника:_x000D_3799 - 5065,5 = -1266,5 тис. грн._x000D__x000D_СП_5_Первинне встановлення корпоративної серверної системи:_x000D_3080 - 2053,4 = 1026,6 тис. грн._x000D__x000D_Разом:_x000D_(164,9) + (700,4) + (5551,7) + (-1266,5) + (1026,6) = 6177 тис. грн.</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
       <c r="K22" s="53" t="str">
         <f xml:space="preserve"> ROUND(B2,1) &amp; " - " &amp; ROUND(C2,1) &amp; " = " &amp; ROUND(D2,1) &amp; " тис. грн."</f>
         <v>1815 - 1650,1 = 164,9 тис. грн.</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="157"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
       <c r="K23" s="53" t="str">
         <f t="shared" ref="K23:K26" si="4" xml:space="preserve"> ROUND(B3,1) &amp; " - " &amp; ROUND(C3,1) &amp; " = " &amp; ROUND(D3,1) &amp; " тис. грн."</f>
         <v>4202 - 3501,6 = 700,4 тис. грн.</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="157"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="A24" s="177"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="K24" s="53" t="str">
         <f t="shared" si="4"/>
         <v>24058 - 18506,3 = 5551,7 тис. грн.</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="157"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
       <c r="K25" s="53" t="str">
         <f t="shared" si="4"/>
         <v>3799 - 5065,5 = -1266,5 тис. грн.</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="157"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="A26" s="177"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
       <c r="K26" s="53" t="str">
         <f t="shared" si="4"/>
         <v>3080 - 2053,4 = 1026,6 тис. грн.</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="157"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="A27" s="177"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
       <c r="K27" s="53" t="str">
         <f xml:space="preserve"> "(" &amp; ROUND(D2, 1) &amp; ") + (" &amp; ROUND(D3, 1) &amp; ") + (" &amp; ROUND(D4, 1) &amp; ") + (" &amp; ROUND(D5, 1) &amp; ") + (" &amp; ROUND(D6, 1) &amp; ") = " &amp; ROUND(D7, 1) &amp; " тис. грн."</f>
         <v>(164,9) + (700,4) + (5551,7) + (-1266,5) + (1026,6) = 6177 тис. грн.</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="195" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="157"/>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="157"/>
+      <c r="A28" s="177"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
       <c r="K28" s="53"/>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="K29" s="53"/>
     </row>
     <row r="30" spans="1:11" ht="25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
       <c r="K30" s="53"/>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
@@ -8371,68 +8371,68 @@
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="165" t="str">
+      <c r="A32" s="185" t="str">
         <f xml:space="preserve"> IF(LEN(K37) &lt; 2, K41, K40)</f>
         <v>Для того, щоб запобігти операційним збиткам, необхідно коригувати вартість надання СП_4_Послуги інженера третьої сторони на території замовника.</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="185"/>
       <c r="K32" s="55" t="str">
         <f t="shared" ref="K32:K35" si="5">IF(D3&lt;0,A3 &amp; ", ", "")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="165"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
+      <c r="A33" s="185"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
       <c r="K33" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="165"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="165"/>
-      <c r="G34" s="165"/>
+      <c r="A34" s="185"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
       <c r="K34" s="55" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">СП_4_Послуги інженера третьої сторони на території замовника, </v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="165"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="165"/>
-      <c r="G35" s="165"/>
+      <c r="A35" s="185"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
       <c r="K35" s="55" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:11" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="165"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
+      <c r="A36" s="185"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="K37" s="1" t="str">
@@ -8513,7 +8513,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="338" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="157" t="str">
+      <c r="A3" s="177" t="str">
         <f>Таблиця_2!A17</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_3444 х 30% + 7222 х 20% = 2477,6 тис. грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:
 3444 х 20% + 7222 х 20% = 2133,2 тис. грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):
@@ -8525,7 +8525,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="157"/>
+      <c r="A4" s="177"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="58" t="str">
@@ -8534,13 +8534,13 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="333" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="157" t="str">
+      <c r="A6" s="177" t="str">
         <f>Таблиця_4!A15</f>
         <v>ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів:_x000D_ 2477,6 тис. грн. / 78100 x 1000 = 31,7 грн._x000D__x000D_ВД_2. Ідентифікація категорії звернення та проблеми:_x000D_ 2133,2 тис. грн. / 51975 x 1000 = 41 грн._x000D__x000D_ВД_3. Розподіл ресурсів для вирішення проблеми (персонал, запасні частини і т. ін.):_x000D_ 2077,6 тис. грн. / 31600 x 1000 = 65,7 грн._x000D__x000D_ВД_4. Підготовка та відправлення замовнику запасних частин:_x000D_ 2927,75 тис. грн. / 3000 x 1000 = 975,9 грн._x000D__x000D_ВД_5. Виконання робіт інженерами СЦ:_x000D_ 12627,65 тис. грн. / 40000 x 1000 = 315,7 грн._x000D__x000D_ВД_6. Виконання робіт інженерами третьої сторони (аутсорсинг):_x000D_ 4505,5 тис. грн. / 8500 x 1000 = 530,1 грн._x000D__x000D_ВД_7. Вирішення нестандартних проблем клієнтів:_x000D_ 4027,7 тис. грн. / 700 x 1000 = 5753,9 грн.</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="271" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="157"/>
+      <c r="A7" s="177"/>
     </row>
     <row r="8" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="str">
@@ -8549,7 +8549,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="157" t="str">
+      <c r="A9" s="177" t="str">
         <f>Таблиця_4!A19</f>
         <v>СП_1_Дистанційне консультування клієнта:_x000D_     ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,_x000D_     ВД_2. Ідентифікація категорії звернення та проблеми;_x000D__x000D_СП_2_Консультування та відправлення замовнику запасних частин:
      ВД_1. Приймання та реєстрація звернень (телефонних дзвінків) клієнтів,
@@ -8572,7 +8572,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="157"/>
+      <c r="A10" s="177"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
